--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99014.46439574161</v>
+        <v>113089.4213477886</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17830756.54751031</v>
+        <v>18674817.03528146</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21126708.64830595</v>
+        <v>20653983.91450662</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2755516.441476698</v>
+        <v>2879867.849512743</v>
       </c>
     </row>
     <row r="11">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2406,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
     </row>
     <row r="31">
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3117,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3162,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.18597748887102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3636,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3828,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3873,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>21.17958346691037</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>21.17958346691036</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>89.95362214562996</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>89.95362214562996</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
     </row>
     <row r="46">
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>89.95362214562996</v>
       </c>
     </row>
   </sheetData>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>36.90564719155985</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>51.2620607004857</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>56.15049506616392</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>79.95588520267762</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>18.22779283473495</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>42.03318297124865</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>65.83857310776234</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>89.64396324427604</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>73.33983829936038</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>14.42751442499288</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>28.7839279339187</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>52.5893180704324</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>52.5893180704324</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>76.39470820694609</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>18.22779283473494</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>42.03318297124864</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>65.83857310776233</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>89.64396324427602</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>96.1833944909644</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>96.1833944909644</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>12.71890440301364</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>12.71890440301364</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>23.89549356824051</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>47.7008837047542</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>52.5893180704324</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>52.5893180704324</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>76.39470820694609</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>18.22779283473494</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>42.03318297124864</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.83857310776233</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>89.64396324427602</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>96.1833944909644</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>96.1833944909644</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>24.76722408142335</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>18.22779283473495</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>42.03318297124864</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>65.83857310776233</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>89.64396324427601</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.21604627444601</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>24.76722408142335</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>73.33983829936038</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>18.22779283473494</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>42.03318297124864</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>65.83857310776233</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>89.64396324427599</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>96.18339449096437</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>24.76722408142335</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>73.33983829936038</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>91.29496012528624</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>18.22779283473497</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>42.03318297124866</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>65.83857310776236</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>89.64396324427605</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>24.76722408142335</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>13.59063491619648</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>24.76722408142335</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>48.57261421793704</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>26.21240387238607</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>18.22779283473494</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>42.03318297124864</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>65.83857310776233</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>89.64396324427602</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>74.78987583751962</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>50.50113985495284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>25.72905802633299</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>49.53444816284669</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>72.37800435445074</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.18339449096443</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>71.89465850839765</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.60592252583088</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>23.3171865432641</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.923667889819289</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>111.3289445540371</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>111.3289445540371</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>111.3289445540371</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>111.3289445540371</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>111.3289445540371</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>66.01696848711653</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>122.4327633262627</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>205.7913395834005</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>293.4977201993286</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>367.6484485439619</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>305.3499591178185</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>214.487714526273</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>214.487714526273</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>214.487714526273</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>214.487714526273</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>111.3289445540371</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>33.41958402764885</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>97.48018274910214</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>184.8178442257732</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>283.8326929156449</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>359.969068466881</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>305.3499591178185</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>202.1911891455825</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>109.2760850315896</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>206.2969081904775</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>307.402818640266</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>408.5087290900544</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>305.3499591178185</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>202.1911891455825</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>99.03241917334651</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>99.03241917334651</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.170174581801088</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K11" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L11" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M11" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N11" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O11" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P11" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K12" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L12" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M12" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L13" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M13" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N13" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O13" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P13" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K14" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L14" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M14" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N14" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O14" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P14" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K15" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L15" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M15" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9085,25 +9087,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L16" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M16" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N16" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O16" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P16" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>66.85930902235421</v>
+        <v>51.88365228004648</v>
       </c>
       <c r="K17" t="n">
-        <v>66.89160419125324</v>
+        <v>44.44697677306648</v>
       </c>
       <c r="L17" t="n">
-        <v>58.75652045681615</v>
+        <v>30.91197545483701</v>
       </c>
       <c r="M17" t="n">
-        <v>44.58488518912007</v>
+        <v>13.60246380497313</v>
       </c>
       <c r="N17" t="n">
-        <v>42.27704711602587</v>
+        <v>10.7932977627591</v>
       </c>
       <c r="O17" t="n">
-        <v>48.67649131215622</v>
+        <v>18.94727957188903</v>
       </c>
       <c r="P17" t="n">
-        <v>64.19643144562944</v>
+        <v>38.8232370349338</v>
       </c>
       <c r="Q17" t="n">
-        <v>79.83741748749453</v>
+        <v>60.78320517767101</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5176150018526</v>
+        <v>91.43392189486737</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>52.17609846406338</v>
+        <v>43.25669990186429</v>
       </c>
       <c r="K18" t="n">
-        <v>37.86348895248231</v>
+        <v>22.61881614878314</v>
       </c>
       <c r="L18" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>25.905898199832</v>
+        <v>7.878286918971142</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.09263685995591</v>
+        <v>38.0416561369513</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>68.93883907326308</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9322,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>52.65320747019938</v>
+        <v>43.45768110131544</v>
       </c>
       <c r="L19" t="n">
-        <v>47.74285799352729</v>
+        <v>35.97575015027785</v>
       </c>
       <c r="M19" t="n">
-        <v>48.19887298505093</v>
+        <v>35.79210763460761</v>
       </c>
       <c r="N19" t="n">
-        <v>41.89382985982422</v>
+        <v>29.78206965893037</v>
       </c>
       <c r="O19" t="n">
-        <v>52.03260915047363</v>
+        <v>40.84543825975317</v>
       </c>
       <c r="P19" t="n">
-        <v>57.03832163257277</v>
+        <v>47.46576429206949</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.98740327762849</v>
+        <v>69.35986075933506</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>66.85930902235421</v>
+        <v>51.88365228004648</v>
       </c>
       <c r="K20" t="n">
-        <v>66.89160419125324</v>
+        <v>44.44697677306648</v>
       </c>
       <c r="L20" t="n">
-        <v>58.75652045681615</v>
+        <v>30.91197545483701</v>
       </c>
       <c r="M20" t="n">
-        <v>44.58488518912007</v>
+        <v>13.6024638049731</v>
       </c>
       <c r="N20" t="n">
-        <v>42.27704711602587</v>
+        <v>10.7932977627591</v>
       </c>
       <c r="O20" t="n">
-        <v>48.67649131215622</v>
+        <v>18.94727957188903</v>
       </c>
       <c r="P20" t="n">
-        <v>64.19643144562944</v>
+        <v>38.8232370349338</v>
       </c>
       <c r="Q20" t="n">
-        <v>79.83741748749453</v>
+        <v>60.78320517767101</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018526</v>
+        <v>91.43392189486737</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>52.17609846406338</v>
+        <v>43.25669990186429</v>
       </c>
       <c r="K21" t="n">
-        <v>37.86348895248231</v>
+        <v>22.61881614878314</v>
       </c>
       <c r="L21" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>25.905898199832</v>
+        <v>7.878286918971142</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.09263685995591</v>
+        <v>38.0416561369513</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>68.93883907326308</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>52.65320747019938</v>
+        <v>43.45768110131544</v>
       </c>
       <c r="L22" t="n">
-        <v>47.74285799352729</v>
+        <v>35.97575015027785</v>
       </c>
       <c r="M22" t="n">
-        <v>48.19887298505093</v>
+        <v>35.7921076346076</v>
       </c>
       <c r="N22" t="n">
-        <v>41.89382985982422</v>
+        <v>29.78206965893037</v>
       </c>
       <c r="O22" t="n">
-        <v>52.03260915047363</v>
+        <v>40.84543825975317</v>
       </c>
       <c r="P22" t="n">
-        <v>57.03832163257277</v>
+        <v>47.46576429206949</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.98740327762849</v>
+        <v>69.35986075933506</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.85930902235421</v>
+        <v>39.85188557492624</v>
       </c>
       <c r="K23" t="n">
-        <v>66.89160419125324</v>
+        <v>26.41447739585696</v>
       </c>
       <c r="L23" t="n">
-        <v>58.75652045681615</v>
+        <v>32.5869140574805</v>
       </c>
       <c r="M23" t="n">
-        <v>44.58488518912007</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>42.27704711602587</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>48.67649131215622</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>64.19643144562944</v>
+        <v>42.48371218348919</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.83741748749453</v>
+        <v>61.86606219178876</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5176150018526</v>
+        <v>82.52904299779367</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406338</v>
+        <v>36.09066207814832</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248231</v>
+        <v>10.37091611834116</v>
       </c>
       <c r="L24" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995591</v>
+        <v>28.35963743673175</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,25 +9798,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>52.65320747019938</v>
+        <v>60.1156448449495</v>
       </c>
       <c r="L25" t="n">
-        <v>47.74285799352729</v>
+        <v>50.56764968750122</v>
       </c>
       <c r="M25" t="n">
-        <v>48.19887298505093</v>
+        <v>25.82424386540238</v>
       </c>
       <c r="N25" t="n">
-        <v>41.89382985982422</v>
+        <v>44.09706803362695</v>
       </c>
       <c r="O25" t="n">
-        <v>52.03260915047363</v>
+        <v>54.9317222553703</v>
       </c>
       <c r="P25" t="n">
-        <v>57.03832163257277</v>
+        <v>39.77496457128388</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.98740327762849</v>
+        <v>64.03514967784406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>66.85930902235421</v>
+        <v>39.85188557492626</v>
       </c>
       <c r="K26" t="n">
-        <v>66.89160419125324</v>
+        <v>26.41447739585698</v>
       </c>
       <c r="L26" t="n">
-        <v>58.75652045681615</v>
+        <v>8.541065434739409</v>
       </c>
       <c r="M26" t="n">
-        <v>44.58488518912007</v>
+        <v>1.340664010047202</v>
       </c>
       <c r="N26" t="n">
-        <v>42.27704711602587</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>48.67649131215622</v>
+        <v>19.10803613215707</v>
       </c>
       <c r="P26" t="n">
-        <v>64.19643144562944</v>
+        <v>18.4378635607481</v>
       </c>
       <c r="Q26" t="n">
-        <v>79.83741748749453</v>
+        <v>69.52048729100784</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406338</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248231</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L27" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995591</v>
+        <v>28.35963743673175</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,25 +10035,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>52.65320747019938</v>
+        <v>36.0697962222084</v>
       </c>
       <c r="L28" t="n">
-        <v>47.74285799352729</v>
+        <v>50.56764968750123</v>
       </c>
       <c r="M28" t="n">
-        <v>48.19887298505093</v>
+        <v>49.8700924881435</v>
       </c>
       <c r="N28" t="n">
-        <v>41.89382985982422</v>
+        <v>20.05121941088585</v>
       </c>
       <c r="O28" t="n">
-        <v>52.03260915047363</v>
+        <v>31.85742307193186</v>
       </c>
       <c r="P28" t="n">
-        <v>57.03832163257277</v>
+        <v>62.84926375472232</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.98740327762849</v>
+        <v>88.08099830058516</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>66.85930902235421</v>
+        <v>39.85188557492626</v>
       </c>
       <c r="K29" t="n">
-        <v>66.89160419125324</v>
+        <v>37.31875670211389</v>
       </c>
       <c r="L29" t="n">
-        <v>58.75652045681615</v>
+        <v>8.541065434739409</v>
       </c>
       <c r="M29" t="n">
-        <v>44.58488518912007</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>42.27704711602587</v>
+        <v>9.544420835947363</v>
       </c>
       <c r="O29" t="n">
-        <v>48.67649131215622</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>64.19643144562944</v>
+        <v>18.4378635607481</v>
       </c>
       <c r="Q29" t="n">
-        <v>79.83741748749453</v>
+        <v>69.52048729100784</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10188,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406338</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248231</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L30" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995591</v>
+        <v>28.35963743673175</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,25 +10272,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>52.65320747019938</v>
+        <v>36.0697962222084</v>
       </c>
       <c r="L31" t="n">
-        <v>47.74285799352729</v>
+        <v>50.56764968750122</v>
       </c>
       <c r="M31" t="n">
-        <v>48.19887298505093</v>
+        <v>25.82424386540239</v>
       </c>
       <c r="N31" t="n">
-        <v>41.89382985982422</v>
+        <v>20.05121941088585</v>
       </c>
       <c r="O31" t="n">
-        <v>52.03260915047363</v>
+        <v>54.9317222553703</v>
       </c>
       <c r="P31" t="n">
-        <v>57.03832163257277</v>
+        <v>63.82081319402499</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.98740327762849</v>
+        <v>88.08099830058516</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>66.85930902235421</v>
+        <v>39.85188557492626</v>
       </c>
       <c r="K32" t="n">
-        <v>66.89160419125324</v>
+        <v>26.41447739585698</v>
       </c>
       <c r="L32" t="n">
-        <v>58.75652045681615</v>
+        <v>8.541065434739409</v>
       </c>
       <c r="M32" t="n">
-        <v>44.58488518912007</v>
+        <v>11.78481517815878</v>
       </c>
       <c r="N32" t="n">
-        <v>42.27704711602587</v>
+        <v>9.544420835947363</v>
       </c>
       <c r="O32" t="n">
-        <v>48.67649131215622</v>
+        <v>19.10803613215707</v>
       </c>
       <c r="P32" t="n">
-        <v>64.19643144562944</v>
+        <v>42.4837121834892</v>
       </c>
       <c r="Q32" t="n">
-        <v>79.83741748749453</v>
+        <v>45.47463866826673</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>82.52904299779368</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406338</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L33" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995591</v>
+        <v>28.35963743673175</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,25 +10509,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>52.65320747019938</v>
+        <v>36.0697962222084</v>
       </c>
       <c r="L34" t="n">
-        <v>47.74285799352729</v>
+        <v>26.52180106476012</v>
       </c>
       <c r="M34" t="n">
-        <v>48.19887298505093</v>
+        <v>25.82424386540239</v>
       </c>
       <c r="N34" t="n">
-        <v>41.89382985982422</v>
+        <v>43.12551859432429</v>
       </c>
       <c r="O34" t="n">
-        <v>52.03260915047363</v>
+        <v>55.90327169467297</v>
       </c>
       <c r="P34" t="n">
-        <v>57.03832163257277</v>
+        <v>63.82081319402499</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.98740327762849</v>
+        <v>88.08099830058516</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>66.85930902235421</v>
+        <v>39.85188557492626</v>
       </c>
       <c r="K35" t="n">
-        <v>66.89160419125324</v>
+        <v>26.41447739585698</v>
       </c>
       <c r="L35" t="n">
-        <v>58.75652045681615</v>
+        <v>8.541065434739409</v>
       </c>
       <c r="M35" t="n">
-        <v>44.58488518912007</v>
+        <v>12.75636461746146</v>
       </c>
       <c r="N35" t="n">
-        <v>42.27704711602587</v>
+        <v>9.544420835947363</v>
       </c>
       <c r="O35" t="n">
-        <v>48.67649131215622</v>
+        <v>19.10803613215708</v>
       </c>
       <c r="P35" t="n">
-        <v>64.19643144562944</v>
+        <v>41.51216274418653</v>
       </c>
       <c r="Q35" t="n">
-        <v>79.83741748749453</v>
+        <v>45.47463866826673</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>82.52904299779368</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406338</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248231</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L36" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995591</v>
+        <v>28.35963743673175</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>52.65320747019938</v>
+        <v>59.14409540564685</v>
       </c>
       <c r="L37" t="n">
-        <v>47.74285799352729</v>
+        <v>50.56764968750122</v>
       </c>
       <c r="M37" t="n">
-        <v>48.19887298505093</v>
+        <v>25.82424386540239</v>
       </c>
       <c r="N37" t="n">
-        <v>41.89382985982422</v>
+        <v>20.05121941088585</v>
       </c>
       <c r="O37" t="n">
-        <v>52.03260915047363</v>
+        <v>55.90327169467297</v>
       </c>
       <c r="P37" t="n">
-        <v>57.03832163257277</v>
+        <v>39.77496457128389</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.98740327762849</v>
+        <v>88.08099830058518</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>66.85930902235421</v>
+        <v>63.89773419766736</v>
       </c>
       <c r="K38" t="n">
-        <v>66.89160419125324</v>
+        <v>26.41447739585698</v>
       </c>
       <c r="L38" t="n">
-        <v>58.75652045681615</v>
+        <v>32.58691405748051</v>
       </c>
       <c r="M38" t="n">
-        <v>44.58488518912007</v>
+        <v>12.75636461746145</v>
       </c>
       <c r="N38" t="n">
-        <v>42.27704711602587</v>
+        <v>3.635058906060646</v>
       </c>
       <c r="O38" t="n">
-        <v>48.67649131215622</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>64.19643144562944</v>
+        <v>18.4378635607481</v>
       </c>
       <c r="Q38" t="n">
-        <v>79.83741748749453</v>
+        <v>45.47463866826673</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>82.52904299779368</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406338</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248231</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L39" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995591</v>
+        <v>28.35963743673175</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,25 +10983,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>52.65320747019938</v>
+        <v>36.0697962222084</v>
       </c>
       <c r="L40" t="n">
-        <v>47.74285799352729</v>
+        <v>49.59610024819857</v>
       </c>
       <c r="M40" t="n">
-        <v>48.19887298505093</v>
+        <v>49.8700924881435</v>
       </c>
       <c r="N40" t="n">
-        <v>41.89382985982422</v>
+        <v>20.05121941088585</v>
       </c>
       <c r="O40" t="n">
-        <v>52.03260915047363</v>
+        <v>55.90327169467297</v>
       </c>
       <c r="P40" t="n">
-        <v>57.03832163257277</v>
+        <v>39.77496457128389</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.98740327762849</v>
+        <v>88.08099830058516</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>66.85930902235421</v>
+        <v>39.85188557492626</v>
       </c>
       <c r="K41" t="n">
-        <v>66.89160419125324</v>
+        <v>26.41447739585698</v>
       </c>
       <c r="L41" t="n">
-        <v>58.75652045681615</v>
+        <v>20.32588061289819</v>
       </c>
       <c r="M41" t="n">
-        <v>44.58488518912007</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>42.27704711602587</v>
+        <v>9.544420835947363</v>
       </c>
       <c r="O41" t="n">
-        <v>48.67649131215622</v>
+        <v>19.10803613215708</v>
       </c>
       <c r="P41" t="n">
-        <v>64.19643144562944</v>
+        <v>42.48371218348922</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.83741748749453</v>
+        <v>45.47463866826673</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>82.52904299779368</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406338</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248231</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L42" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995591</v>
+        <v>28.35963743673175</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,25 +11220,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>52.65320747019938</v>
+        <v>36.0697962222084</v>
       </c>
       <c r="L43" t="n">
-        <v>47.74285799352729</v>
+        <v>50.56764968750122</v>
       </c>
       <c r="M43" t="n">
-        <v>48.19887298505093</v>
+        <v>49.8700924881435</v>
       </c>
       <c r="N43" t="n">
-        <v>41.89382985982422</v>
+        <v>20.05121941088585</v>
       </c>
       <c r="O43" t="n">
-        <v>52.03260915047363</v>
+        <v>31.85742307193186</v>
       </c>
       <c r="P43" t="n">
-        <v>57.03832163257277</v>
+        <v>62.84926375472232</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.98740327762849</v>
+        <v>88.08099830058518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>66.85930902235421</v>
+        <v>4.609592408025833</v>
       </c>
       <c r="K44" t="n">
-        <v>66.89160419125324</v>
+        <v>32.02652051559406</v>
       </c>
       <c r="L44" t="n">
-        <v>58.75652045681615</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>44.58488518912007</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>42.27704711602587</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>48.67649131215622</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>64.19643144562944</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.83741748749453</v>
+        <v>0.634258854400656</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>56.44572868511975</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>15.10059370182076</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248231</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>25.905898199832</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995591</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>50.43562012484767</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>40.29764808962184</v>
       </c>
       <c r="K46" t="n">
-        <v>52.65320747019938</v>
+        <v>116.5570970729853</v>
       </c>
       <c r="L46" t="n">
-        <v>47.74285799352729</v>
+        <v>96.83103466897259</v>
       </c>
       <c r="M46" t="n">
-        <v>48.19887298505093</v>
+        <v>98.75451883314247</v>
       </c>
       <c r="N46" t="n">
-        <v>41.89382985982422</v>
+        <v>93.67573157603687</v>
       </c>
       <c r="O46" t="n">
-        <v>52.03260915047363</v>
+        <v>5.530593936942651</v>
       </c>
       <c r="P46" t="n">
-        <v>57.03832163257277</v>
+        <v>17.24781414602685</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.98740327762849</v>
+        <v>48.43851839649691</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H11" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I11" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23349,13 +23351,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H12" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I12" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T12" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23428,16 +23430,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H13" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I13" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J13" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S13" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T13" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23507,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H14" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I14" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23586,13 +23588,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H15" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I15" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T15" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23665,16 +23667,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H16" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I16" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J16" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S16" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T16" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23744,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.4323500200001</v>
+        <v>408.2559037484226</v>
       </c>
       <c r="H17" t="n">
-        <v>314.7099853831353</v>
+        <v>312.9029550043414</v>
       </c>
       <c r="I17" t="n">
-        <v>113.8693593270194</v>
+        <v>107.0669144420247</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.2037672717813</v>
+        <v>147.1829978582072</v>
       </c>
       <c r="T17" t="n">
-        <v>218.6444459974996</v>
+        <v>217.8720524436687</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1473000347972</v>
+        <v>253.133184333071</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23823,13 +23825,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4444382301515</v>
       </c>
       <c r="H18" t="n">
-        <v>84.320299612958</v>
+        <v>83.40852598898685</v>
       </c>
       <c r="I18" t="n">
-        <v>37.86294566882081</v>
+        <v>34.61252652796092</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.6305556124798</v>
+        <v>125.8769855409459</v>
       </c>
       <c r="T18" t="n">
-        <v>173.9226398638123</v>
+        <v>173.5421130879587</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9352236303352</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23902,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2237744696828</v>
       </c>
       <c r="H19" t="n">
-        <v>151.5357458635549</v>
+        <v>150.8320506531661</v>
       </c>
       <c r="I19" t="n">
-        <v>123.6862121416195</v>
+        <v>121.3060242520837</v>
       </c>
       <c r="J19" t="n">
-        <v>11.085091836852</v>
+        <v>5.489347817226779</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>110.585143828612</v>
+        <v>107.0263743903882</v>
       </c>
       <c r="S19" t="n">
-        <v>196.1071114281788</v>
+        <v>194.7277824728462</v>
       </c>
       <c r="T19" t="n">
-        <v>232.2142445012334</v>
+        <v>231.876067866384</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5654362645981</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23981,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.4323500200001</v>
+        <v>408.2559037484226</v>
       </c>
       <c r="H20" t="n">
-        <v>314.7099853831353</v>
+        <v>312.9029550043414</v>
       </c>
       <c r="I20" t="n">
-        <v>113.8693593270194</v>
+        <v>107.0669144420247</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.2037672717813</v>
+        <v>147.1829978582072</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6444459974996</v>
+        <v>217.8720524436687</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1473000347972</v>
+        <v>253.133184333071</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24060,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4444382301515</v>
       </c>
       <c r="H21" t="n">
-        <v>84.320299612958</v>
+        <v>83.40852598898685</v>
       </c>
       <c r="I21" t="n">
-        <v>37.86294566882081</v>
+        <v>34.61252652796092</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>127.6305556124798</v>
+        <v>125.8769855409459</v>
       </c>
       <c r="T21" t="n">
-        <v>173.9226398638123</v>
+        <v>173.5421130879587</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9352236303352</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24139,16 +24141,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2237744696828</v>
       </c>
       <c r="H22" t="n">
-        <v>151.5357458635549</v>
+        <v>150.8320506531661</v>
       </c>
       <c r="I22" t="n">
-        <v>123.6862121416195</v>
+        <v>121.3060242520837</v>
       </c>
       <c r="J22" t="n">
-        <v>11.085091836852</v>
+        <v>5.489347817226779</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>110.585143828612</v>
+        <v>107.0263743903882</v>
       </c>
       <c r="S22" t="n">
-        <v>196.1071114281788</v>
+        <v>194.7277824728462</v>
       </c>
       <c r="T22" t="n">
-        <v>232.2142445012334</v>
+        <v>231.876067866384</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5654362645981</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>375.3102147873726</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>365.1978978593576</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24218,13 +24220,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>384.0682943727381</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270194</v>
+        <v>101.6016830141787</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>143.952624700512</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>217.2514947476595</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>229.0759948500944</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24294,16 +24296,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>99.14163943295841</v>
       </c>
       <c r="G24" t="n">
-        <v>118.5388453083828</v>
+        <v>94.32274091775777</v>
       </c>
       <c r="H24" t="n">
-        <v>84.320299612958</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86294566882081</v>
+        <v>7.955220827267517</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>127.6305556124798</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T24" t="n">
-        <v>173.9226398638123</v>
+        <v>173.236389641508</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9414346223241</v>
+        <v>186.750650118053</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>159.3100898816471</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>144.4572181319296</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>132.8971984996</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24376,16 +24378,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3029221927327</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J25" t="n">
-        <v>11.085091836852</v>
+        <v>0.9936059780393371</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>104.1671820107276</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5619677740445</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24430,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>196.835091948782</v>
       </c>
     </row>
     <row r="26">
@@ -24446,22 +24448,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>357.5408688727578</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>374.5118410118798</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>388.6796454625809</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>386.9345595285689</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270194</v>
+        <v>101.6016830141787</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>143.952624700512</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>217.2514947476595</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1218434728356</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24534,13 +24536,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.5388453083828</v>
+        <v>118.3685895404989</v>
       </c>
       <c r="H27" t="n">
-        <v>84.320299612958</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882081</v>
+        <v>10.82148598309826</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>127.6305556124798</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T27" t="n">
-        <v>173.9226398638123</v>
+        <v>173.236389641508</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9414346223241</v>
+        <v>183.8843849622222</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>196.2687529899025</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>203.7702247853049</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24613,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>142.1143368534596</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>126.2208380701929</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>98.21414632663762</v>
       </c>
       <c r="J28" t="n">
-        <v>11.085091836852</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>104.1671820107276</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5619677740445</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>256.451249425393</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24689,16 +24691,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>391.5459106184117</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>408.1141429954793</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270194</v>
+        <v>101.6016830141787</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>143.952624700512</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>217.2514947476595</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>229.0759948500944</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>314.6398925807757</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>361.5122303935326</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24768,16 +24770,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>99.14163943295841</v>
       </c>
       <c r="G30" t="n">
-        <v>118.5388453083828</v>
+        <v>118.3685895404989</v>
       </c>
       <c r="H30" t="n">
-        <v>84.320299612958</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882081</v>
+        <v>32.00106945000863</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>127.6305556124798</v>
+        <v>100.4222807748763</v>
       </c>
       <c r="T30" t="n">
-        <v>173.9226398638123</v>
+        <v>173.236389641508</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9302335849633</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24822,10 +24824,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>163.3681582507473</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>156.3414912883375</v>
       </c>
     </row>
     <row r="31">
@@ -24841,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>130.0309333437693</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>129.9573753966484</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>131.7068268164157</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J31" t="n">
-        <v>11.085091836852</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>104.1671820107276</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>261.3823843071342</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24917,7 +24919,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>368.0641630151883</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24929,13 +24931,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>384.0682943727381</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270194</v>
+        <v>101.6016830141787</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>119.9067760777709</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6444459974996</v>
+        <v>217.2514947476595</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1218434728356</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24980,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>361.5122303935326</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25005,16 +25007,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>99.14163943295841</v>
       </c>
       <c r="G33" t="n">
-        <v>118.5388453083828</v>
+        <v>94.32274091775777</v>
       </c>
       <c r="H33" t="n">
-        <v>84.320299612958</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I33" t="n">
-        <v>37.86294566882081</v>
+        <v>32.00106945000863</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>127.6305556124798</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T33" t="n">
-        <v>173.9226398638123</v>
+        <v>173.236389641508</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9414346223241</v>
+        <v>186.750650118053</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>203.7702247853049</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
@@ -25075,28 +25077,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>144.4572181319296</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>133.8172465305185</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>131.7068268164157</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416195</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J34" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>80.12133338798647</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5619677740445</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>375.3102147873726</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25160,19 +25162,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>374.5118410118798</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>388.6796454625809</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>384.0682943727381</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270194</v>
+        <v>101.6016830141787</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>143.952624700512</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>217.2514947476595</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1218434728356</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25233,25 +25235,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>127.9681046685983</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>104.7422290819934</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>111.03617735748</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.5388453083828</v>
+        <v>118.3685895404989</v>
       </c>
       <c r="H36" t="n">
-        <v>84.320299612958</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86294566882081</v>
+        <v>32.00106945000863</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>127.6305556124798</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T36" t="n">
-        <v>173.9226398638123</v>
+        <v>173.236389641508</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9302335849633</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>203.7702247853049</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>162.1763550374779</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25324,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J37" t="n">
-        <v>11.085091836852</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.585143828612</v>
+        <v>104.1671820107276</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5619677740445</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>256.451249425393</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>207.6936703721056</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>196.835091948782</v>
       </c>
     </row>
     <row r="38">
@@ -25400,16 +25402,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>391.5459106184117</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>384.0682943727381</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>287.4052990705199</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270194</v>
+        <v>101.6016830141787</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>143.952624700512</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>217.2514947476595</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1218434728356</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>343.2431960586543</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25482,13 +25484,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.5388453083828</v>
+        <v>118.3685895404989</v>
       </c>
       <c r="H39" t="n">
-        <v>84.320299612958</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I39" t="n">
-        <v>37.86294566882081</v>
+        <v>32.00106945000863</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>127.6305556124798</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T39" t="n">
-        <v>173.9226398638123</v>
+        <v>173.236389641508</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9414346223241</v>
+        <v>183.8843849622222</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>196.2687529899025</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>203.7702247853049</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>166.2344234065781</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25558,19 +25560,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>131.7068268164157</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H40" t="n">
-        <v>151.5357458635549</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I40" t="n">
-        <v>123.6862121416195</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J40" t="n">
-        <v>11.085091836852</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>104.1671820107276</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>258.5161191513034</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>239.2737031046429</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>259.3175145812238</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25637,16 +25639,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>388.6796454625809</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>384.0682943727381</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270194</v>
+        <v>101.6016830141787</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>119.9067760777709</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>217.2514947476595</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>231.9422600059252</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25716,16 +25718,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>99.14163943295841</v>
       </c>
       <c r="G42" t="n">
-        <v>118.5388453083828</v>
+        <v>94.32274091775777</v>
       </c>
       <c r="H42" t="n">
-        <v>84.320299612958</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882081</v>
+        <v>32.00106945000863</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>127.6305556124798</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T42" t="n">
-        <v>173.9226398638123</v>
+        <v>173.236389641508</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9414346223241</v>
+        <v>186.750650118053</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>203.7702247853049</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -25798,16 +25800,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I43" t="n">
-        <v>123.6862121416195</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J43" t="n">
-        <v>11.085091836852</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.585143828612</v>
+        <v>104.1671820107276</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>207.5585208169465</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>258.5161191513034</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>239.2737031046429</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>259.3175145812238</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>294.3626159817693</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25877,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>305.5717287676567</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>307.1986534309536</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>85.59345305713158</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>134.49052651891</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>215.4338168632947</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>150.9614426438972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>248.7321190578868</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>60.32474895092176</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>47.02050586299509</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
@@ -25956,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5388453083828</v>
+        <v>118.1464208579956</v>
       </c>
       <c r="H45" t="n">
-        <v>84.320299612958</v>
+        <v>80.53030557895502</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>24.35184068838329</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>127.6305556124798</v>
+        <v>120.341443562524</v>
       </c>
       <c r="T45" t="n">
-        <v>173.9226398638123</v>
+        <v>172.3408939431725</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9156172242723</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26007,10 +26009,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>85.28682460097485</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>75.39389248273423</v>
       </c>
     </row>
     <row r="46">
@@ -26035,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>165.9739267159197</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>148.6106769878903</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>113.7924208934615</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>95.79231084391148</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>190.3736175277197</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>230.8085365548506</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>180.4246259327883</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>161.1923694548704</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>178.3699157756205</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>130.9273184258931</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>237582.3196681528</v>
+        <v>236079.2031754808</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>237582.3196681528</v>
+        <v>236079.2031754808</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>237582.3196681528</v>
+        <v>235529.6457248195</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>237582.3196681528</v>
+        <v>235529.6457248195</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>237582.3196681528</v>
+        <v>255119.0769621577</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>237582.3196681528</v>
+        <v>255119.0769621578</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>237582.3196681528</v>
+        <v>255119.0769621578</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>237582.3196681528</v>
+        <v>255119.0769621577</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>237582.3196681528</v>
+        <v>255119.0769621577</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>237582.3196681528</v>
+        <v>255119.0769621579</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>237582.3196681528</v>
+        <v>255119.0769621578</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>237582.3196681528</v>
+        <v>319137.6113880627</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>52601.96015041335</v>
       </c>
       <c r="E2" t="n">
-        <v>55952.5540622018</v>
+        <v>56442.30737401226</v>
       </c>
       <c r="F2" t="n">
-        <v>55952.5540622018</v>
+        <v>56442.30737401226</v>
       </c>
       <c r="G2" t="n">
-        <v>55952.5540622018</v>
+        <v>56600.31387928506</v>
       </c>
       <c r="H2" t="n">
-        <v>55952.5540622018</v>
+        <v>56600.31387928505</v>
       </c>
       <c r="I2" t="n">
-        <v>55952.5540622018</v>
+        <v>61844.09719955811</v>
       </c>
       <c r="J2" t="n">
-        <v>55952.5540622018</v>
+        <v>61844.09719955813</v>
       </c>
       <c r="K2" t="n">
-        <v>55952.5540622018</v>
+        <v>61844.09719955813</v>
       </c>
       <c r="L2" t="n">
-        <v>55952.5540622018</v>
+        <v>61844.09719955811</v>
       </c>
       <c r="M2" t="n">
-        <v>55952.5540622018</v>
+        <v>61844.09719955811</v>
       </c>
       <c r="N2" t="n">
-        <v>55952.5540622018</v>
+        <v>61844.09719955812</v>
       </c>
       <c r="O2" t="n">
-        <v>55952.5540622018</v>
+        <v>61844.09719955811</v>
       </c>
       <c r="P2" t="n">
-        <v>55952.5540622018</v>
+        <v>78618.18857482576</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119663.6727166194</v>
+        <v>145507.38408843</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9114.639207831675</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>32938.47453466272</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>87203.04260194532</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="C4" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="D4" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="E4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="F4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="G4" t="n">
-        <v>13772.10341934571</v>
+        <v>9128.390207679213</v>
       </c>
       <c r="H4" t="n">
-        <v>13772.10341934571</v>
+        <v>9128.390207679213</v>
       </c>
       <c r="I4" t="n">
-        <v>13772.10341934571</v>
+        <v>7763.539557991571</v>
       </c>
       <c r="J4" t="n">
-        <v>13772.10341934571</v>
+        <v>7763.539557991574</v>
       </c>
       <c r="K4" t="n">
-        <v>13772.10341934571</v>
+        <v>7763.539557991574</v>
       </c>
       <c r="L4" t="n">
-        <v>13772.10341934571</v>
+        <v>7763.539557991575</v>
       </c>
       <c r="M4" t="n">
-        <v>13772.10341934571</v>
+        <v>7763.539557991575</v>
       </c>
       <c r="N4" t="n">
-        <v>13772.10341934571</v>
+        <v>7763.539557991574</v>
       </c>
       <c r="O4" t="n">
-        <v>13772.10341934571</v>
+        <v>7763.539557991575</v>
       </c>
       <c r="P4" t="n">
-        <v>13772.10341934571</v>
+        <v>4753.41682960539</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="F5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="G5" t="n">
-        <v>3247.023057198321</v>
+        <v>4203.847076395649</v>
       </c>
       <c r="H5" t="n">
-        <v>3247.023057198321</v>
+        <v>4203.847076395649</v>
       </c>
       <c r="I5" t="n">
-        <v>3247.023057198321</v>
+        <v>6434.567795681513</v>
       </c>
       <c r="J5" t="n">
-        <v>3247.023057198321</v>
+        <v>6434.567795681513</v>
       </c>
       <c r="K5" t="n">
-        <v>3247.023057198321</v>
+        <v>6434.567795681513</v>
       </c>
       <c r="L5" t="n">
-        <v>3247.023057198321</v>
+        <v>6434.567795681513</v>
       </c>
       <c r="M5" t="n">
-        <v>3247.023057198321</v>
+        <v>6434.567795681513</v>
       </c>
       <c r="N5" t="n">
-        <v>3247.023057198321</v>
+        <v>6434.567795681513</v>
       </c>
       <c r="O5" t="n">
-        <v>3247.023057198321</v>
+        <v>6434.567795681513</v>
       </c>
       <c r="P5" t="n">
-        <v>3247.023057198321</v>
+        <v>13433.61196723913</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-11083.90279267999</v>
       </c>
       <c r="E6" t="n">
-        <v>-80730.24513096162</v>
+        <v>-103323.3316090401</v>
       </c>
       <c r="F6" t="n">
-        <v>38933.42758565778</v>
+        <v>42184.05247938987</v>
       </c>
       <c r="G6" t="n">
-        <v>38933.42758565778</v>
+        <v>34153.43738737852</v>
       </c>
       <c r="H6" t="n">
-        <v>38933.42758565778</v>
+        <v>43268.07659521019</v>
       </c>
       <c r="I6" t="n">
-        <v>38933.42758565778</v>
+        <v>14707.51531122231</v>
       </c>
       <c r="J6" t="n">
-        <v>38933.42758565778</v>
+        <v>47645.98984588504</v>
       </c>
       <c r="K6" t="n">
-        <v>38933.42758565778</v>
+        <v>47645.98984588504</v>
       </c>
       <c r="L6" t="n">
-        <v>38933.42758565778</v>
+        <v>47645.98984588502</v>
       </c>
       <c r="M6" t="n">
-        <v>38933.42758565778</v>
+        <v>47645.98984588502</v>
       </c>
       <c r="N6" t="n">
-        <v>38933.42758565778</v>
+        <v>47645.98984588504</v>
       </c>
       <c r="O6" t="n">
-        <v>38933.42758565778</v>
+        <v>47645.98984588502</v>
       </c>
       <c r="P6" t="n">
-        <v>38933.42758565778</v>
+        <v>-26771.88282396407</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="F3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9460117980881</v>
+        <v>192.8370218530114</v>
       </c>
       <c r="H3" t="n">
-        <v>148.9460117980881</v>
+        <v>192.8370218530114</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980881</v>
+        <v>228.1000091476539</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980881</v>
+        <v>228.1000091476538</v>
       </c>
       <c r="K3" t="n">
-        <v>148.9460117980881</v>
+        <v>228.1000091476538</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9460117980881</v>
+        <v>228.1000091476538</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980881</v>
+        <v>228.1000091476538</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980881</v>
+        <v>228.1000091476538</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980881</v>
+        <v>228.1000091476538</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>331.3889580307476</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
     </row>
   </sheetData>
@@ -26966,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.72320464243347</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>35.26298729464241</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>103.2889488830938</v>
       </c>
     </row>
     <row r="4">
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>78.0813336497725</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H11" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I11" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J11" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K11" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L11" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M11" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N11" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O11" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P11" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S11" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T11" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H12" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I12" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J12" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K12" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L12" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M12" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R12" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S12" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T12" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I13" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J13" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K13" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L13" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M13" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N13" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O13" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P13" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R13" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S13" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T13" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H14" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I14" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J14" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K14" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L14" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M14" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N14" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O14" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P14" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S14" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T14" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H15" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I15" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J15" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K15" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L15" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M15" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R15" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S15" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T15" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H16" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I16" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J16" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K16" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L16" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M16" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N16" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O16" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P16" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R16" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S16" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T16" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7752242084543167</v>
       </c>
       <c r="H17" t="n">
-        <v>6.132234546038871</v>
+        <v>7.939264924832774</v>
       </c>
       <c r="I17" t="n">
-        <v>23.08438641144037</v>
+        <v>29.88683129643508</v>
       </c>
       <c r="J17" t="n">
-        <v>50.82052891999189</v>
+        <v>65.79618566229962</v>
       </c>
       <c r="K17" t="n">
-        <v>76.16679898798412</v>
+        <v>98.61142640617088</v>
       </c>
       <c r="L17" t="n">
-        <v>94.49164927367555</v>
+        <v>122.3361942756547</v>
       </c>
       <c r="M17" t="n">
-        <v>105.1401664086072</v>
+        <v>136.1225877927541</v>
       </c>
       <c r="N17" t="n">
-        <v>106.8414442217582</v>
+        <v>138.325193575025</v>
       </c>
       <c r="O17" t="n">
-        <v>100.8873461119402</v>
+        <v>130.6165578522074</v>
       </c>
       <c r="P17" t="n">
-        <v>86.10501579529576</v>
+        <v>111.4782102059914</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.66128093089763</v>
+        <v>83.71549324072116</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>48.69667768431852</v>
       </c>
       <c r="S17" t="n">
-        <v>13.64465223657863</v>
+        <v>17.66542165015276</v>
       </c>
       <c r="T17" t="n">
-        <v>2.621150418677912</v>
+        <v>3.393543972508773</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.06201793667634533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4147815187027039</v>
       </c>
       <c r="H18" t="n">
-        <v>3.094142622447076</v>
+        <v>4.005916246418219</v>
       </c>
       <c r="I18" t="n">
-        <v>11.03043577938672</v>
+        <v>14.2808549202466</v>
       </c>
       <c r="J18" t="n">
-        <v>30.26835886926997</v>
+        <v>39.18775743146906</v>
       </c>
       <c r="K18" t="n">
-        <v>51.73344638085104</v>
+        <v>66.97811918455021</v>
       </c>
       <c r="L18" t="n">
-        <v>69.56200296287125</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>61.17746661948265</v>
+        <v>79.20507790034351</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.89551629595808</v>
+        <v>52.9464970189627</v>
       </c>
       <c r="R18" t="n">
-        <v>19.89131833031827</v>
+        <v>25.7528385033135</v>
       </c>
       <c r="S18" t="n">
-        <v>5.950814716650026</v>
+        <v>7.704384788183989</v>
       </c>
       <c r="T18" t="n">
-        <v>1.291333819268329</v>
+        <v>1.671860595121863</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02728825780938842</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3477388918660861</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38801966456607</v>
+        <v>3.091714874954841</v>
       </c>
       <c r="I19" t="n">
-        <v>8.077268967673369</v>
+        <v>10.45745685720921</v>
       </c>
       <c r="J19" t="n">
-        <v>18.98939563530707</v>
+        <v>24.58513965493229</v>
       </c>
       <c r="K19" t="n">
-        <v>31.20541034064861</v>
+        <v>40.40093670953254</v>
       </c>
       <c r="L19" t="n">
-        <v>39.93218158927759</v>
+        <v>51.69928943252704</v>
       </c>
       <c r="M19" t="n">
-        <v>42.10288658089234</v>
+        <v>54.50965193133566</v>
       </c>
       <c r="N19" t="n">
-        <v>41.10177404257735</v>
+        <v>53.2135342434712</v>
       </c>
       <c r="O19" t="n">
-        <v>37.96414084322417</v>
+        <v>49.15131173394463</v>
       </c>
       <c r="P19" t="n">
-        <v>32.48488099937317</v>
+        <v>42.05743833987644</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.4908477815113</v>
+        <v>29.11839029980473</v>
       </c>
       <c r="R19" t="n">
-        <v>12.07683564513678</v>
+        <v>15.63560508336056</v>
       </c>
       <c r="S19" t="n">
-        <v>4.680811551097292</v>
+        <v>6.060140506429881</v>
       </c>
       <c r="T19" t="n">
-        <v>1.147616812214777</v>
+        <v>1.485793447064186</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01896757591996836</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7752242084543167</v>
       </c>
       <c r="H20" t="n">
-        <v>6.132234546038871</v>
+        <v>7.939264924832774</v>
       </c>
       <c r="I20" t="n">
-        <v>23.08438641144037</v>
+        <v>29.88683129643507</v>
       </c>
       <c r="J20" t="n">
-        <v>50.82052891999189</v>
+        <v>65.79618566229962</v>
       </c>
       <c r="K20" t="n">
-        <v>76.16679898798412</v>
+        <v>98.61142640617088</v>
       </c>
       <c r="L20" t="n">
-        <v>94.49164927367555</v>
+        <v>122.3361942756547</v>
       </c>
       <c r="M20" t="n">
-        <v>105.1401664086072</v>
+        <v>136.1225877927542</v>
       </c>
       <c r="N20" t="n">
-        <v>106.8414442217582</v>
+        <v>138.325193575025</v>
       </c>
       <c r="O20" t="n">
-        <v>100.8873461119402</v>
+        <v>130.6165578522074</v>
       </c>
       <c r="P20" t="n">
-        <v>86.10501579529576</v>
+        <v>111.4782102059914</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.66128093089763</v>
+        <v>83.71549324072116</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>48.69667768431852</v>
       </c>
       <c r="S20" t="n">
-        <v>13.64465223657863</v>
+        <v>17.66542165015276</v>
       </c>
       <c r="T20" t="n">
-        <v>2.621150418677912</v>
+        <v>3.393543972508773</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.06201793667634533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4147815187027039</v>
       </c>
       <c r="H21" t="n">
-        <v>3.094142622447076</v>
+        <v>4.00591624641822</v>
       </c>
       <c r="I21" t="n">
-        <v>11.03043577938672</v>
+        <v>14.2808549202466</v>
       </c>
       <c r="J21" t="n">
-        <v>30.26835886926997</v>
+        <v>39.18775743146906</v>
       </c>
       <c r="K21" t="n">
-        <v>51.73344638085104</v>
+        <v>66.97811918455021</v>
       </c>
       <c r="L21" t="n">
-        <v>69.56200296287125</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>61.17746661948265</v>
+        <v>79.20507790034351</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.89551629595808</v>
+        <v>52.9464970189627</v>
       </c>
       <c r="R21" t="n">
-        <v>19.89131833031827</v>
+        <v>25.7528385033135</v>
       </c>
       <c r="S21" t="n">
-        <v>5.950814716650026</v>
+        <v>7.70438478818399</v>
       </c>
       <c r="T21" t="n">
-        <v>1.291333819268329</v>
+        <v>1.671860595121863</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02728825780938842</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3477388918660861</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38801966456607</v>
+        <v>3.091714874954841</v>
       </c>
       <c r="I22" t="n">
-        <v>8.077268967673369</v>
+        <v>10.45745685720921</v>
       </c>
       <c r="J22" t="n">
-        <v>18.98939563530707</v>
+        <v>24.58513965493229</v>
       </c>
       <c r="K22" t="n">
-        <v>31.20541034064861</v>
+        <v>40.40093670953254</v>
       </c>
       <c r="L22" t="n">
-        <v>39.93218158927759</v>
+        <v>51.69928943252704</v>
       </c>
       <c r="M22" t="n">
-        <v>42.10288658089234</v>
+        <v>54.50965193133567</v>
       </c>
       <c r="N22" t="n">
-        <v>41.10177404257735</v>
+        <v>53.2135342434712</v>
       </c>
       <c r="O22" t="n">
-        <v>37.96414084322417</v>
+        <v>49.15131173394464</v>
       </c>
       <c r="P22" t="n">
-        <v>32.48488099937317</v>
+        <v>42.05743833987644</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.4908477815113</v>
+        <v>29.11839029980473</v>
       </c>
       <c r="R22" t="n">
-        <v>12.07683564513678</v>
+        <v>15.63560508336056</v>
       </c>
       <c r="S22" t="n">
-        <v>4.680811551097292</v>
+        <v>6.060140506429881</v>
       </c>
       <c r="T22" t="n">
-        <v>1.147616812214777</v>
+        <v>1.485793447064186</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01896757591996836</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.9169849613976028</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038871</v>
+        <v>9.391072235913201</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144037</v>
+        <v>35.35206272428111</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999189</v>
+        <v>77.82795236741985</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798412</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367555</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086072</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217582</v>
+        <v>163.6199191245779</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119402</v>
+        <v>154.5016499146805</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529576</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089763</v>
+        <v>99.02405975012545</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>57.60155658139222</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657863</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677912</v>
+        <v>4.014101668518008</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.0733587969118082</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4906302083553309</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447076</v>
+        <v>4.738454907010697</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938672</v>
+        <v>16.8923119981989</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926997</v>
+        <v>46.35379525518503</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085104</v>
+        <v>79.22601921499219</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287125</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995801</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259271</v>
+        <v>109.4179614769078</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425364</v>
+        <v>116.73340751163</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948265</v>
+        <v>93.68885092708071</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595808</v>
+        <v>62.62851571918225</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031827</v>
+        <v>30.46211065560556</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650026</v>
+        <v>9.11324093151239</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268329</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.4113278853482282</v>
       </c>
       <c r="H25" t="n">
-        <v>2.38801966456607</v>
+        <v>3.657078835186977</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673369</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530707</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064861</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927759</v>
+        <v>61.15323851804477</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089234</v>
+        <v>64.47751570054089</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257735</v>
+        <v>62.94438449151573</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322417</v>
+        <v>58.13932692176595</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937317</v>
+        <v>49.74823806066205</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.4908477815113</v>
+        <v>34.44310138129573</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513678</v>
+        <v>18.49479746302124</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097292</v>
+        <v>7.168323238295939</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214777</v>
+        <v>1.757491873760611</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02243606647353975</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.9169849613976025</v>
       </c>
       <c r="H26" t="n">
-        <v>6.132234546038871</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144037</v>
+        <v>35.35206272428111</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999189</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798412</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367555</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086072</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217582</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119402</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529576</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089763</v>
+        <v>99.02405975012543</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657863</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677912</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4906302083553309</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447076</v>
+        <v>4.738454907010697</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938672</v>
+        <v>16.8923119981989</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926997</v>
+        <v>46.35379525518502</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085104</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287125</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995801</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259271</v>
+        <v>109.4179614769078</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425364</v>
+        <v>116.73340751163</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948265</v>
+        <v>93.68885092708069</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595808</v>
+        <v>62.62851571918224</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031827</v>
+        <v>30.46211065560556</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650026</v>
+        <v>9.11324093151239</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268329</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.4113278853482282</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38801966456607</v>
+        <v>3.657078835186977</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673369</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530707</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064861</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927759</v>
+        <v>61.15323851804477</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089234</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257735</v>
+        <v>62.94438449151572</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322417</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937317</v>
+        <v>49.74823806066205</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.4908477815113</v>
+        <v>34.44310138129573</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513678</v>
+        <v>18.49479746302124</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097292</v>
+        <v>7.168323238295938</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214777</v>
+        <v>1.757491873760611</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.9169849613976025</v>
       </c>
       <c r="H29" t="n">
-        <v>6.132234546038871</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144037</v>
+        <v>35.35206272428111</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999189</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798412</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367555</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086072</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N29" t="n">
-        <v>106.8414442217582</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119402</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529576</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089763</v>
+        <v>99.02405975012543</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657863</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677912</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4906302083553309</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447076</v>
+        <v>4.738454907010697</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938672</v>
+        <v>16.8923119981989</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926997</v>
+        <v>46.35379525518502</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085104</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287125</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995801</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259271</v>
+        <v>109.4179614769078</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425364</v>
+        <v>116.73340751163</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948265</v>
+        <v>93.68885092708069</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595808</v>
+        <v>62.62851571918224</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031827</v>
+        <v>30.46211065560556</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650026</v>
+        <v>9.11324093151239</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268329</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.4113278853482282</v>
       </c>
       <c r="H31" t="n">
-        <v>2.38801966456607</v>
+        <v>3.657078835186977</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673369</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530707</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064861</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927759</v>
+        <v>61.15323851804477</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089234</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257735</v>
+        <v>62.94438449151572</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322417</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937317</v>
+        <v>49.74823806066205</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.4908477815113</v>
+        <v>34.44310138129573</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513678</v>
+        <v>18.49479746302124</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097292</v>
+        <v>7.168323238295938</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214777</v>
+        <v>1.757491873760611</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.9169849613976025</v>
       </c>
       <c r="H32" t="n">
-        <v>6.132234546038871</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144037</v>
+        <v>35.35206272428111</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999189</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798412</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367555</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1401664086072</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N32" t="n">
-        <v>106.8414442217582</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O32" t="n">
-        <v>100.8873461119402</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529576</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089763</v>
+        <v>99.02405975012543</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657863</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677912</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4906302083553309</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447076</v>
+        <v>4.738454907010697</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938672</v>
+        <v>16.8923119981989</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926997</v>
+        <v>46.35379525518502</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085104</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287125</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M33" t="n">
-        <v>81.17557642995801</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259271</v>
+        <v>109.4179614769078</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425364</v>
+        <v>116.73340751163</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948265</v>
+        <v>93.68885092708069</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595808</v>
+        <v>62.62851571918224</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031827</v>
+        <v>30.46211065560556</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650026</v>
+        <v>9.11324093151239</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268329</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.4113278853482282</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38801966456607</v>
+        <v>3.657078835186977</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673369</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530707</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K34" t="n">
-        <v>31.20541034064861</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927759</v>
+        <v>61.15323851804477</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089234</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257735</v>
+        <v>62.94438449151572</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322417</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937317</v>
+        <v>49.74823806066205</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.4908477815113</v>
+        <v>34.44310138129573</v>
       </c>
       <c r="R34" t="n">
-        <v>12.07683564513678</v>
+        <v>18.49479746302124</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097292</v>
+        <v>7.168323238295938</v>
       </c>
       <c r="T34" t="n">
-        <v>1.147616812214777</v>
+        <v>1.757491873760611</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.9169849613976025</v>
       </c>
       <c r="H35" t="n">
-        <v>6.132234546038871</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144037</v>
+        <v>35.35206272428111</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999189</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798412</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367555</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1401664086072</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N35" t="n">
-        <v>106.8414442217582</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O35" t="n">
-        <v>100.8873461119402</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529576</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089763</v>
+        <v>99.02405975012543</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657863</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677912</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4906302083553309</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447076</v>
+        <v>4.738454907010697</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938672</v>
+        <v>16.8923119981989</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926997</v>
+        <v>46.35379525518502</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085104</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287125</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M36" t="n">
-        <v>81.17557642995801</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259271</v>
+        <v>109.4179614769078</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425364</v>
+        <v>116.73340751163</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948265</v>
+        <v>93.68885092708069</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595808</v>
+        <v>62.62851571918224</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031827</v>
+        <v>30.46211065560556</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650026</v>
+        <v>9.11324093151239</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268329</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.4113278853482282</v>
       </c>
       <c r="H37" t="n">
-        <v>2.38801966456607</v>
+        <v>3.657078835186977</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673369</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530707</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K37" t="n">
-        <v>31.20541034064861</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927759</v>
+        <v>61.15323851804477</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089234</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257735</v>
+        <v>62.94438449151572</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322417</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937317</v>
+        <v>49.74823806066205</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.4908477815113</v>
+        <v>34.44310138129573</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513678</v>
+        <v>18.49479746302124</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097292</v>
+        <v>7.168323238295938</v>
       </c>
       <c r="T37" t="n">
-        <v>1.147616812214777</v>
+        <v>1.757491873760611</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.9169849613976025</v>
       </c>
       <c r="H38" t="n">
-        <v>6.132234546038871</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144037</v>
+        <v>35.35206272428111</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999189</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798412</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367555</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086072</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217582</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O38" t="n">
-        <v>100.8873461119402</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529576</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089763</v>
+        <v>99.02405975012543</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657863</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677912</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4906302083553309</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447076</v>
+        <v>4.738454907010697</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938672</v>
+        <v>16.8923119981989</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926997</v>
+        <v>46.35379525518502</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085104</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287125</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M39" t="n">
-        <v>81.17557642995801</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259271</v>
+        <v>109.4179614769078</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425364</v>
+        <v>116.73340751163</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948265</v>
+        <v>93.68885092708069</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595808</v>
+        <v>62.62851571918224</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031827</v>
+        <v>30.46211065560556</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650026</v>
+        <v>9.11324093151239</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268329</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.4113278853482282</v>
       </c>
       <c r="H40" t="n">
-        <v>2.38801966456607</v>
+        <v>3.657078835186977</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673369</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530707</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064861</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927759</v>
+        <v>61.15323851804477</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089234</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257735</v>
+        <v>62.94438449151572</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322417</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937317</v>
+        <v>49.74823806066205</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.4908477815113</v>
+        <v>34.44310138129573</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513678</v>
+        <v>18.49479746302124</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097292</v>
+        <v>7.168323238295938</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214777</v>
+        <v>1.757491873760611</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.9169849613976025</v>
       </c>
       <c r="H41" t="n">
-        <v>6.132234546038871</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>35.35206272428111</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999189</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798412</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367555</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086072</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217582</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O41" t="n">
-        <v>100.8873461119402</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529576</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089763</v>
+        <v>99.02405975012543</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657863</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677912</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4906302083553309</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447076</v>
+        <v>4.738454907010697</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938672</v>
+        <v>16.8923119981989</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926997</v>
+        <v>46.35379525518502</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085104</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287125</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M42" t="n">
-        <v>81.17557642995801</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259271</v>
+        <v>109.4179614769078</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425364</v>
+        <v>116.73340751163</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948265</v>
+        <v>93.68885092708069</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595808</v>
+        <v>62.62851571918224</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031827</v>
+        <v>30.46211065560556</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650026</v>
+        <v>9.11324093151239</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268329</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.4113278853482282</v>
       </c>
       <c r="H43" t="n">
-        <v>2.38801966456607</v>
+        <v>3.657078835186977</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673369</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530707</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064861</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927759</v>
+        <v>61.15323851804477</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089234</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257735</v>
+        <v>62.94438449151572</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322417</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937317</v>
+        <v>49.74823806066205</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>34.44310138129573</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513678</v>
+        <v>18.49479746302124</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097292</v>
+        <v>7.168323238295938</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214777</v>
+        <v>1.757491873760611</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>1.332216916706522</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038871</v>
+        <v>13.64356649822067</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>51.36029268132823</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>113.0702455343203</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>169.4629876185074</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>210.2338210831646</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>233.9256336756442</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217582</v>
+        <v>237.7107949902366</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119402</v>
+        <v>224.4635630247362</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>191.5744578935439</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>143.8644395639915</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>83.68487089406614</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657863</v>
+        <v>30.3578929894499</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677912</v>
+        <v>5.831779552882803</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.1065773533365217</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.7127988908585892</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>6.884136656450059</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938672</v>
+        <v>24.54154075982423</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926997</v>
+        <v>67.34386363151259</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>115.1013893190381</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>154.7680223331336</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>180.6069821267574</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>185.3871115308047</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>169.5929887386223</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>136.1133250447423</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>90.98815315591395</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031827</v>
+        <v>44.25605745172891</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>13.2399267666058</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>2.873079739908084</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.04689466387227562</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.5975866456292168</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38801966456607</v>
+        <v>5.313088540230678</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>17.97106021583136</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530707</v>
+        <v>42.24937584598563</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>69.42870301037627</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>88.8448363874565</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>93.67442300531441</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>91.44705459887831</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>84.46615605675515</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937317</v>
+        <v>72.27538848591908</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>50.03973266264288</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>26.86966862983733</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>10.41430545155644</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>2.553324758597562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.03259563521613914</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>11.28948400527966</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>14.50142778679378</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>4.937812490584065</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>16.39142352352203</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>16.46881307567239</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>6.605486107766055</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>23.07429918343843</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>12.63014801532686</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>14.50142778679376</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>19.98857200405892</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.46881307567237</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>6.605486107766041</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,10 +36758,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,10 +36770,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>23.07429918343843</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>10.90427930625692</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>11.28948400527966</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>4.937812490584037</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>19.98857200405892</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.46881307567237</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>6.605486107766041</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,7 +36995,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,13 +37004,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>23.07429918343844</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>23.07429918343844</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>16.46881307567237</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>6.605486107766041</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,16 +37238,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>23.07429918343844</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>23.07429918343843</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>16.46881307567237</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>6.605486107766041</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>23.07429918343844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37476,13 +37478,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>18.1364866928544</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>4.937812490584037</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>16.46881307567237</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>6.605486107766041</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,22 +37706,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>23.07429918343844</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>11.78481517815878</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>11.28948400527966</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.46881307567237</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>6.60548610776607</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,10 +37943,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37953,10 +37955,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>23.07429918343843</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>24.04584862274111</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>58.43110495486408</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>56.98565135267293</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>84.20058207791698</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>88.59230365245256</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>74.89972560063978</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>41.27301065261867</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.50445398570471</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>64.70767547621536</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>88.21986007744549</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>100.0149986766381</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>76.90542984973341</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>49.02996022542769</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,16 +38177,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>98.0008314736242</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>102.1271822725136</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113089.4213477886</v>
+        <v>100960.2638842991</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18674817.03528146</v>
+        <v>18636344.1468419</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20653983.91450662</v>
+        <v>20773798.85290139</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2879867.849512743</v>
+        <v>2842898.741043013</v>
       </c>
     </row>
     <row r="11">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.17958346691037</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="C23" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="U23" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="F24" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="G24" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>21.17958346691037</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>24.04584862274111</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="D25" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="G26" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>24.04584862274111</v>
+        <v>21.17958346691034</v>
       </c>
       <c r="V27" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>24.04584862274111</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.17958346691036</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="U29" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="V29" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="F30" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>21.17958346691034</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="D31" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.04584862274111</v>
+        <v>20.18597748887099</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>21.17958346691037</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="G32" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="X32" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>21.17958346691037</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="W33" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3189,28 +3189,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="E34" t="n">
-        <v>20.18597748887102</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9936059780393407</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.04584862274111</v>
+        <v>21.17958346691034</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.17958346691037</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>24.04584862274111</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="G35" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>21.17958346691037</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.9936059780393443</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.18597748887099</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
     </row>
     <row r="38">
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="F38" t="n">
-        <v>21.17958346691037</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="G38" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="H38" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>21.17958346691033</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="X39" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>20.18597748887098</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.9936059780393443</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="V40" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>21.17958346691036</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>21.17958346691031</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="F41" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="U41" t="n">
-        <v>21.17958346691037</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>21.17958346691032</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="G42" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>21.17958346691037</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.18597748887097</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.9936059780393443</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="V43" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>21.17958346691036</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.1271822725136</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>102.1271822725136</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>21.17958346691032</v>
       </c>
       <c r="U44" t="n">
-        <v>102.1271822725136</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>89.95362214562996</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>89.95362214562996</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>102.1271822725136</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>21.17958346691031</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>102.1271822725136</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.1271822725136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>21.17958346691031</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.1271822725136</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="V46" t="n">
-        <v>102.1271822725136</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="W46" t="n">
-        <v>102.1271822725136</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.95362214562996</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.50113985495284</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="C23" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="D23" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="E23" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="F23" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="G23" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="H23" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I23" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J23" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K23" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="L23" t="n">
-        <v>25.72905802633299</v>
+        <v>49.53444816284662</v>
       </c>
       <c r="M23" t="n">
-        <v>36.90564719155985</v>
+        <v>73.33983829936028</v>
       </c>
       <c r="N23" t="n">
-        <v>51.2620607004857</v>
+        <v>87.69625180828609</v>
       </c>
       <c r="O23" t="n">
-        <v>56.15049506616392</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="P23" t="n">
-        <v>79.95588520267762</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q23" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R23" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S23" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T23" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="U23" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="V23" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="W23" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="X23" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="Y23" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="C24" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="D24" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="E24" t="n">
-        <v>74.78987583751962</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="F24" t="n">
-        <v>50.50113985495284</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="G24" t="n">
-        <v>26.21240387238607</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H24" t="n">
-        <v>26.21240387238607</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I24" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J24" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K24" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L24" t="n">
-        <v>18.22779283473495</v>
+        <v>18.22779283473493</v>
       </c>
       <c r="M24" t="n">
-        <v>42.03318297124865</v>
+        <v>42.0331829712486</v>
       </c>
       <c r="N24" t="n">
-        <v>65.83857310776234</v>
+        <v>65.83857310776227</v>
       </c>
       <c r="O24" t="n">
-        <v>89.64396324427604</v>
+        <v>89.64396324427594</v>
       </c>
       <c r="P24" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096432</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R24" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S24" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="T24" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="U24" t="n">
-        <v>74.78987583751962</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="V24" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="W24" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="X24" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="Y24" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.60592252583088</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="C25" t="n">
-        <v>23.3171865432641</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="D25" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="E25" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="F25" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="G25" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H25" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I25" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J25" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K25" t="n">
-        <v>25.72905802633299</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L25" t="n">
-        <v>49.53444816284669</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="M25" t="n">
-        <v>49.53444816284669</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="N25" t="n">
-        <v>73.33983829936038</v>
+        <v>24.76722408142331</v>
       </c>
       <c r="O25" t="n">
-        <v>96.18339449096443</v>
+        <v>48.57261421793697</v>
       </c>
       <c r="P25" t="n">
-        <v>96.18339449096443</v>
+        <v>72.37800435445064</v>
       </c>
       <c r="Q25" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R25" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S25" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T25" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="U25" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="V25" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="W25" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="X25" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.18339449096443</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="C26" t="n">
-        <v>96.18339449096443</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="D26" t="n">
-        <v>71.89465850839765</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="E26" t="n">
-        <v>47.60592252583088</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="F26" t="n">
-        <v>23.3171865432641</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="G26" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="H26" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I26" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J26" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="K26" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="L26" t="n">
-        <v>1.923667889819289</v>
+        <v>45.9732711671151</v>
       </c>
       <c r="M26" t="n">
-        <v>14.42751442499288</v>
+        <v>57.14986033234197</v>
       </c>
       <c r="N26" t="n">
-        <v>28.7839279339187</v>
+        <v>71.50627384126778</v>
       </c>
       <c r="O26" t="n">
-        <v>52.5893180704324</v>
+        <v>76.39470820694598</v>
       </c>
       <c r="P26" t="n">
-        <v>52.5893180704324</v>
+        <v>76.39470820694598</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.39470820694609</v>
+        <v>76.39470820694598</v>
       </c>
       <c r="R26" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S26" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T26" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="U26" t="n">
-        <v>96.18339449096443</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="V26" t="n">
-        <v>96.18339449096443</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="W26" t="n">
-        <v>96.18339449096443</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="X26" t="n">
-        <v>96.18339449096443</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="Y26" t="n">
-        <v>96.18339449096443</v>
+        <v>50.50113985495278</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.3171865432641</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="C27" t="n">
-        <v>23.3171865432641</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="D27" t="n">
-        <v>23.3171865432641</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="E27" t="n">
-        <v>23.3171865432641</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="F27" t="n">
-        <v>23.3171865432641</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="G27" t="n">
-        <v>23.3171865432641</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H27" t="n">
-        <v>23.3171865432641</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I27" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J27" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K27" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L27" t="n">
-        <v>18.22779283473494</v>
+        <v>18.22779283473493</v>
       </c>
       <c r="M27" t="n">
-        <v>42.03318297124864</v>
+        <v>42.0331829712486</v>
       </c>
       <c r="N27" t="n">
-        <v>65.83857310776233</v>
+        <v>65.83857310776226</v>
       </c>
       <c r="O27" t="n">
-        <v>89.64396324427602</v>
+        <v>89.64396324427592</v>
       </c>
       <c r="P27" t="n">
-        <v>96.1833944909644</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.1833944909644</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R27" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S27" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="T27" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="U27" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="V27" t="n">
-        <v>47.60592252583088</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="W27" t="n">
-        <v>23.3171865432641</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="X27" t="n">
-        <v>23.3171865432641</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="Y27" t="n">
-        <v>23.3171865432641</v>
+        <v>74.78987583751952</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="C28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="D28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="E28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="F28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="G28" t="n">
-        <v>47.60592252583088</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H28" t="n">
-        <v>23.3171865432641</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I28" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J28" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K28" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L28" t="n">
-        <v>25.72905802633299</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="M28" t="n">
-        <v>49.53444816284669</v>
+        <v>48.57261421793697</v>
       </c>
       <c r="N28" t="n">
-        <v>49.53444816284669</v>
+        <v>72.37800435445064</v>
       </c>
       <c r="O28" t="n">
-        <v>49.53444816284669</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="P28" t="n">
-        <v>72.37800435445074</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R28" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="S28" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T28" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="U28" t="n">
-        <v>96.18339449096443</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="V28" t="n">
-        <v>96.18339449096443</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="W28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="X28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.89465850839765</v>
+        <v>1.923667889819286</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.3171865432641</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="C29" t="n">
-        <v>23.3171865432641</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="D29" t="n">
-        <v>23.3171865432641</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="E29" t="n">
-        <v>23.3171865432641</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="F29" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="G29" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H29" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I29" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J29" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K29" t="n">
-        <v>12.71890440301364</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="L29" t="n">
-        <v>12.71890440301364</v>
+        <v>49.53444816284662</v>
       </c>
       <c r="M29" t="n">
-        <v>23.89549356824051</v>
+        <v>73.33983829936028</v>
       </c>
       <c r="N29" t="n">
-        <v>47.7008837047542</v>
+        <v>91.29496012528611</v>
       </c>
       <c r="O29" t="n">
-        <v>52.5893180704324</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="P29" t="n">
-        <v>52.5893180704324</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.39470820694609</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R29" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S29" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T29" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="U29" t="n">
-        <v>71.89465850839765</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="V29" t="n">
-        <v>47.60592252583088</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="W29" t="n">
-        <v>47.60592252583088</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="X29" t="n">
-        <v>23.3171865432641</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="Y29" t="n">
-        <v>23.3171865432641</v>
+        <v>23.31718654326406</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.21240387238607</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="C30" t="n">
-        <v>26.21240387238607</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="D30" t="n">
-        <v>26.21240387238607</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="E30" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="F30" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="G30" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="H30" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="I30" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J30" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819278</v>
       </c>
       <c r="K30" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819278</v>
       </c>
       <c r="L30" t="n">
-        <v>18.22779283473494</v>
+        <v>18.22779283473493</v>
       </c>
       <c r="M30" t="n">
-        <v>42.03318297124864</v>
+        <v>42.03318297124859</v>
       </c>
       <c r="N30" t="n">
-        <v>65.83857310776233</v>
+        <v>65.83857310776226</v>
       </c>
       <c r="O30" t="n">
-        <v>89.64396324427602</v>
+        <v>89.64396324427592</v>
       </c>
       <c r="P30" t="n">
-        <v>96.1833944909644</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.1833944909644</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R30" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S30" t="n">
-        <v>71.89465850839765</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="T30" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="U30" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="V30" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="W30" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="X30" t="n">
-        <v>47.60592252583088</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="Y30" t="n">
-        <v>26.21240387238607</v>
+        <v>74.78987583751952</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.78987583751962</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="C31" t="n">
-        <v>74.78987583751962</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="D31" t="n">
-        <v>50.50113985495284</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="E31" t="n">
-        <v>26.21240387238607</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="F31" t="n">
-        <v>1.923667889819289</v>
+        <v>27.21604627444597</v>
       </c>
       <c r="G31" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879226</v>
       </c>
       <c r="H31" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879226</v>
       </c>
       <c r="I31" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879226</v>
       </c>
       <c r="J31" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K31" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L31" t="n">
-        <v>25.72905802633299</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="M31" t="n">
-        <v>25.72905802633299</v>
+        <v>48.57261421793697</v>
       </c>
       <c r="N31" t="n">
-        <v>25.72905802633299</v>
+        <v>72.37800435445064</v>
       </c>
       <c r="O31" t="n">
-        <v>48.57261421793704</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="P31" t="n">
-        <v>72.37800435445074</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R31" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S31" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="T31" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="U31" t="n">
-        <v>74.78987583751962</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="V31" t="n">
-        <v>74.78987583751962</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="W31" t="n">
-        <v>74.78987583751962</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="X31" t="n">
-        <v>74.78987583751962</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Y31" t="n">
-        <v>74.78987583751962</v>
+        <v>96.1833944909643</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.60592252583088</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="C32" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="D32" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="E32" t="n">
-        <v>26.21240387238607</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="F32" t="n">
-        <v>26.21240387238607</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="G32" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H32" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I32" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J32" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="K32" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="L32" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="M32" t="n">
-        <v>24.76722408142335</v>
+        <v>49.53444816284662</v>
       </c>
       <c r="N32" t="n">
-        <v>48.57261421793704</v>
+        <v>71.50627384126778</v>
       </c>
       <c r="O32" t="n">
-        <v>72.37800435445074</v>
+        <v>76.39470820694598</v>
       </c>
       <c r="P32" t="n">
-        <v>96.18339449096443</v>
+        <v>76.39470820694598</v>
       </c>
       <c r="Q32" t="n">
-        <v>96.18339449096443</v>
+        <v>76.39470820694598</v>
       </c>
       <c r="R32" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S32" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T32" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="U32" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="V32" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="W32" t="n">
-        <v>71.89465850839765</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="X32" t="n">
-        <v>47.60592252583088</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.60592252583088</v>
+        <v>26.21240387238603</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.50113985495284</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="C33" t="n">
-        <v>50.50113985495284</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="D33" t="n">
-        <v>50.50113985495284</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="E33" t="n">
-        <v>50.50113985495284</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="F33" t="n">
-        <v>26.21240387238607</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="G33" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="H33" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I33" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J33" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K33" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L33" t="n">
-        <v>18.22779283473495</v>
+        <v>18.22779283473493</v>
       </c>
       <c r="M33" t="n">
-        <v>42.03318297124864</v>
+        <v>42.0331829712486</v>
       </c>
       <c r="N33" t="n">
-        <v>65.83857310776233</v>
+        <v>65.83857310776226</v>
       </c>
       <c r="O33" t="n">
-        <v>89.64396324427601</v>
+        <v>89.64396324427592</v>
       </c>
       <c r="P33" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R33" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S33" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="T33" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="U33" t="n">
-        <v>74.78987583751962</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="V33" t="n">
-        <v>74.78987583751962</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="W33" t="n">
-        <v>50.50113985495284</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="X33" t="n">
-        <v>50.50113985495284</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="Y33" t="n">
-        <v>50.50113985495284</v>
+        <v>50.50113985495278</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="C34" t="n">
-        <v>47.60592252583088</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="D34" t="n">
-        <v>47.60592252583088</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="E34" t="n">
-        <v>27.21604627444601</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="F34" t="n">
-        <v>2.927310291879229</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="G34" t="n">
-        <v>2.927310291879229</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="H34" t="n">
-        <v>2.927310291879229</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I34" t="n">
-        <v>2.927310291879229</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J34" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K34" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="L34" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="M34" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="N34" t="n">
-        <v>24.76722408142335</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="O34" t="n">
-        <v>48.57261421793704</v>
+        <v>48.57261421793697</v>
       </c>
       <c r="P34" t="n">
-        <v>72.37800435445074</v>
+        <v>72.37800435445064</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="S34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="T34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="U34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="V34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="W34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="X34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.89465850839765</v>
+        <v>74.78987583751952</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>74.78987583751962</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="C35" t="n">
-        <v>74.78987583751962</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="D35" t="n">
-        <v>74.78987583751962</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="E35" t="n">
-        <v>50.50113985495284</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="F35" t="n">
-        <v>26.21240387238607</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="G35" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H35" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I35" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J35" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K35" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L35" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="M35" t="n">
-        <v>25.72905802633299</v>
+        <v>49.53444816284662</v>
       </c>
       <c r="N35" t="n">
-        <v>49.53444816284669</v>
+        <v>73.33983829936028</v>
       </c>
       <c r="O35" t="n">
-        <v>73.33983829936038</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="P35" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q35" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R35" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S35" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T35" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="U35" t="n">
-        <v>96.18339449096443</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="V35" t="n">
-        <v>96.18339449096443</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="W35" t="n">
-        <v>96.18339449096443</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="X35" t="n">
-        <v>96.18339449096443</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="Y35" t="n">
-        <v>96.18339449096443</v>
+        <v>23.31718654326406</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>71.89465850839765</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="C36" t="n">
-        <v>50.50113985495284</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="D36" t="n">
-        <v>26.21240387238607</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="E36" t="n">
-        <v>1.923667889819289</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="F36" t="n">
-        <v>1.923667889819289</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="G36" t="n">
-        <v>1.923667889819289</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="H36" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I36" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J36" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K36" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L36" t="n">
-        <v>18.22779283473494</v>
+        <v>18.22779283473492</v>
       </c>
       <c r="M36" t="n">
-        <v>42.03318297124864</v>
+        <v>42.03318297124859</v>
       </c>
       <c r="N36" t="n">
-        <v>65.83857310776233</v>
+        <v>65.83857310776224</v>
       </c>
       <c r="O36" t="n">
-        <v>89.64396324427599</v>
+        <v>89.64396324427589</v>
       </c>
       <c r="P36" t="n">
-        <v>96.18339449096437</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R36" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S36" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T36" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="U36" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="V36" t="n">
-        <v>96.18339449096443</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="W36" t="n">
-        <v>71.89465850839765</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="X36" t="n">
-        <v>71.89465850839765</v>
+        <v>23.31718654326406</v>
       </c>
       <c r="Y36" t="n">
-        <v>71.89465850839765</v>
+        <v>23.31718654326406</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="C37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="D37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="E37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="F37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="G37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="H37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="I37" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="J37" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K37" t="n">
-        <v>24.76722408142335</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L37" t="n">
-        <v>48.57261421793704</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="M37" t="n">
-        <v>48.57261421793704</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="N37" t="n">
-        <v>48.57261421793704</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="O37" t="n">
-        <v>72.37800435445074</v>
+        <v>48.57261421793697</v>
       </c>
       <c r="P37" t="n">
-        <v>72.37800435445074</v>
+        <v>72.37800435445064</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R37" t="n">
-        <v>96.18339449096443</v>
+        <v>75.79351823957947</v>
       </c>
       <c r="S37" t="n">
-        <v>96.18339449096443</v>
+        <v>75.79351823957947</v>
       </c>
       <c r="T37" t="n">
-        <v>96.18339449096443</v>
+        <v>75.79351823957947</v>
       </c>
       <c r="U37" t="n">
-        <v>96.18339449096443</v>
+        <v>51.50478225701272</v>
       </c>
       <c r="V37" t="n">
-        <v>96.18339449096443</v>
+        <v>51.50478225701272</v>
       </c>
       <c r="W37" t="n">
-        <v>71.89465850839765</v>
+        <v>51.50478225701272</v>
       </c>
       <c r="X37" t="n">
-        <v>47.60592252583088</v>
+        <v>27.21604627444598</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.3171865432641</v>
+        <v>2.92731029187923</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="C38" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="D38" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="E38" t="n">
-        <v>71.89465850839765</v>
+        <v>50.50113985495278</v>
       </c>
       <c r="F38" t="n">
-        <v>50.50113985495284</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="G38" t="n">
-        <v>26.21240387238607</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H38" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I38" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J38" t="n">
-        <v>25.72905802633299</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="K38" t="n">
-        <v>25.72905802633299</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="L38" t="n">
-        <v>49.53444816284669</v>
+        <v>49.53444816284662</v>
       </c>
       <c r="M38" t="n">
-        <v>73.33983829936038</v>
+        <v>73.33983829936028</v>
       </c>
       <c r="N38" t="n">
-        <v>91.29496012528624</v>
+        <v>91.29496012528611</v>
       </c>
       <c r="O38" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="P38" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q38" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R38" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S38" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T38" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="U38" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="V38" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="W38" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="X38" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="Y38" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.923667889819289</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="C39" t="n">
-        <v>1.923667889819289</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="D39" t="n">
-        <v>1.923667889819289</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="E39" t="n">
-        <v>1.923667889819289</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="F39" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238603</v>
       </c>
       <c r="G39" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="H39" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="I39" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="J39" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K39" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="L39" t="n">
-        <v>18.22779283473497</v>
+        <v>18.22779283473494</v>
       </c>
       <c r="M39" t="n">
-        <v>42.03318297124866</v>
+        <v>42.03318297124861</v>
       </c>
       <c r="N39" t="n">
-        <v>65.83857310776236</v>
+        <v>65.83857310776227</v>
       </c>
       <c r="O39" t="n">
-        <v>89.64396324427605</v>
+        <v>89.64396324427594</v>
       </c>
       <c r="P39" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R39" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="S39" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T39" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="U39" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="V39" t="n">
-        <v>47.60592252583088</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="W39" t="n">
-        <v>23.3171865432641</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="X39" t="n">
-        <v>1.923667889819289</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.923667889819289</v>
+        <v>47.60592252583081</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.21240387238607</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="C40" t="n">
-        <v>26.21240387238607</v>
+        <v>27.21604627444598</v>
       </c>
       <c r="D40" t="n">
-        <v>26.21240387238607</v>
+        <v>27.21604627444598</v>
       </c>
       <c r="E40" t="n">
-        <v>26.21240387238607</v>
+        <v>27.21604627444598</v>
       </c>
       <c r="F40" t="n">
-        <v>1.923667889819289</v>
+        <v>27.21604627444598</v>
       </c>
       <c r="G40" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="H40" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="I40" t="n">
-        <v>1.923667889819289</v>
+        <v>2.92731029187923</v>
       </c>
       <c r="J40" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819286</v>
       </c>
       <c r="K40" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="L40" t="n">
-        <v>24.76722408142335</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="M40" t="n">
-        <v>48.57261421793704</v>
+        <v>25.72905802633295</v>
       </c>
       <c r="N40" t="n">
-        <v>48.57261421793704</v>
+        <v>48.57261421793697</v>
       </c>
       <c r="O40" t="n">
-        <v>72.37800435445074</v>
+        <v>48.57261421793697</v>
       </c>
       <c r="P40" t="n">
-        <v>72.37800435445074</v>
+        <v>72.37800435445064</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.18339449096443</v>
+        <v>96.1833944909643</v>
       </c>
       <c r="R40" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="S40" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="T40" t="n">
-        <v>96.18339449096443</v>
+        <v>71.89465850839755</v>
       </c>
       <c r="U40" t="n">
-        <v>71.89465850839765</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="V40" t="n">
-        <v>47.60592252583088</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="W40" t="n">
-        <v>26.21240387238607</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="X40" t="n">
-        <v>26.21240387238607</v>
+        <v>47.60592252583081</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.21240387238607</v>
+        <v>47.60592252583081</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.50113985495284</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="C41" t="n">
-        <v>50.50113985495284</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="D41" t="n">
-        <v>50.50113985495284</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="E41" t="n">
-        <v>50.50113985495284</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="F41" t="n">
-        <v>26.21240387238607</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="G41" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="H41" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="I41" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="J41" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="K41" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="L41" t="n">
-        <v>13.59063491619648</v>
+        <v>25.72905802633294</v>
       </c>
       <c r="M41" t="n">
-        <v>24.76722408142335</v>
+        <v>36.90564719155977</v>
       </c>
       <c r="N41" t="n">
-        <v>48.57261421793704</v>
+        <v>52.58931807043227</v>
       </c>
       <c r="O41" t="n">
-        <v>72.37800435445074</v>
+        <v>76.39470820694592</v>
       </c>
       <c r="P41" t="n">
-        <v>96.18339449096443</v>
+        <v>76.39470820694592</v>
       </c>
       <c r="Q41" t="n">
-        <v>96.18339449096443</v>
+        <v>76.39470820694592</v>
       </c>
       <c r="R41" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="S41" t="n">
-        <v>71.89465850839765</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="T41" t="n">
-        <v>71.89465850839765</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="U41" t="n">
-        <v>50.50113985495284</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="V41" t="n">
-        <v>50.50113985495284</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="W41" t="n">
-        <v>50.50113985495284</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="X41" t="n">
-        <v>50.50113985495284</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.50113985495284</v>
+        <v>47.60592252583078</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.50113985495284</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="C42" t="n">
-        <v>50.50113985495284</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="D42" t="n">
-        <v>50.50113985495284</v>
+        <v>74.78987583751947</v>
       </c>
       <c r="E42" t="n">
-        <v>50.50113985495284</v>
+        <v>74.78987583751947</v>
       </c>
       <c r="F42" t="n">
-        <v>26.21240387238607</v>
+        <v>50.50113985495275</v>
       </c>
       <c r="G42" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="H42" t="n">
-        <v>1.923667889819289</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="I42" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="J42" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="K42" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="L42" t="n">
-        <v>18.22779283473494</v>
+        <v>18.22779283473492</v>
       </c>
       <c r="M42" t="n">
-        <v>42.03318297124864</v>
+        <v>42.03318297124857</v>
       </c>
       <c r="N42" t="n">
-        <v>65.83857310776233</v>
+        <v>65.83857310776222</v>
       </c>
       <c r="O42" t="n">
-        <v>89.64396324427602</v>
+        <v>89.64396324427587</v>
       </c>
       <c r="P42" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096423</v>
       </c>
       <c r="Q42" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096423</v>
       </c>
       <c r="R42" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="S42" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="T42" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="U42" t="n">
-        <v>74.78987583751962</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="V42" t="n">
-        <v>74.78987583751962</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="W42" t="n">
-        <v>50.50113985495284</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="X42" t="n">
-        <v>50.50113985495284</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.50113985495284</v>
+        <v>96.18339449096425</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.923667889819289</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="C43" t="n">
-        <v>1.923667889819289</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="D43" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="E43" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="F43" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="G43" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="H43" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="I43" t="n">
-        <v>1.923667889819289</v>
+        <v>2.927310291879229</v>
       </c>
       <c r="J43" t="n">
-        <v>1.923667889819289</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="K43" t="n">
-        <v>1.923667889819289</v>
+        <v>25.72905802633294</v>
       </c>
       <c r="L43" t="n">
-        <v>25.72905802633299</v>
+        <v>49.53444816284659</v>
       </c>
       <c r="M43" t="n">
-        <v>49.53444816284669</v>
+        <v>49.53444816284659</v>
       </c>
       <c r="N43" t="n">
-        <v>49.53444816284669</v>
+        <v>49.53444816284659</v>
       </c>
       <c r="O43" t="n">
-        <v>49.53444816284669</v>
+        <v>72.3780043544506</v>
       </c>
       <c r="P43" t="n">
-        <v>72.37800435445074</v>
+        <v>72.3780043544506</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="R43" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="S43" t="n">
-        <v>96.18339449096443</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="T43" t="n">
-        <v>71.89465850839765</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="U43" t="n">
-        <v>47.60592252583088</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="V43" t="n">
-        <v>23.3171865432641</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="W43" t="n">
-        <v>1.923667889819289</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="X43" t="n">
-        <v>1.923667889819289</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.923667889819289</v>
+        <v>23.31718654326405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>111.3289445540371</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="C44" t="n">
-        <v>111.3289445540371</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="D44" t="n">
-        <v>111.3289445540371</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="E44" t="n">
-        <v>111.3289445540371</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="F44" t="n">
-        <v>111.3289445540371</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="G44" t="n">
-        <v>8.170174581801088</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="H44" t="n">
-        <v>8.170174581801088</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="I44" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="J44" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="K44" t="n">
-        <v>66.01696848711653</v>
+        <v>25.72905802633294</v>
       </c>
       <c r="L44" t="n">
-        <v>122.4327633262627</v>
+        <v>25.72905802633294</v>
       </c>
       <c r="M44" t="n">
-        <v>205.7913395834005</v>
+        <v>48.57261421793694</v>
       </c>
       <c r="N44" t="n">
-        <v>293.4977201993286</v>
+        <v>72.3780043544506</v>
       </c>
       <c r="O44" t="n">
-        <v>367.6484485439619</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="P44" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="Q44" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="R44" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="S44" t="n">
-        <v>408.5087290900544</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="T44" t="n">
-        <v>408.5087290900544</v>
+        <v>50.50113985495275</v>
       </c>
       <c r="U44" t="n">
-        <v>305.3499591178185</v>
+        <v>50.50113985495275</v>
       </c>
       <c r="V44" t="n">
-        <v>214.487714526273</v>
+        <v>50.50113985495275</v>
       </c>
       <c r="W44" t="n">
-        <v>214.487714526273</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="X44" t="n">
-        <v>214.487714526273</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="Y44" t="n">
-        <v>214.487714526273</v>
+        <v>26.21240387238602</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>111.3289445540371</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="C45" t="n">
-        <v>8.170174581801088</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="D45" t="n">
-        <v>8.170174581801088</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="E45" t="n">
-        <v>8.170174581801088</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="F45" t="n">
-        <v>8.170174581801088</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="G45" t="n">
-        <v>8.170174581801088</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="H45" t="n">
-        <v>8.170174581801088</v>
+        <v>26.21240387238602</v>
       </c>
       <c r="I45" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="J45" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="K45" t="n">
-        <v>33.41958402764885</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="L45" t="n">
-        <v>97.48018274910214</v>
+        <v>18.22779283473492</v>
       </c>
       <c r="M45" t="n">
-        <v>184.8178442257732</v>
+        <v>42.03318297124857</v>
       </c>
       <c r="N45" t="n">
-        <v>283.8326929156449</v>
+        <v>65.83857310776223</v>
       </c>
       <c r="O45" t="n">
-        <v>359.969068466881</v>
+        <v>89.64396324427588</v>
       </c>
       <c r="P45" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="Q45" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="R45" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="S45" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="T45" t="n">
-        <v>408.5087290900544</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="U45" t="n">
-        <v>408.5087290900544</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="V45" t="n">
-        <v>408.5087290900544</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="W45" t="n">
-        <v>408.5087290900544</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="X45" t="n">
-        <v>305.3499591178185</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="Y45" t="n">
-        <v>202.1911891455825</v>
+        <v>47.60592252583078</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.170174581801088</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="C46" t="n">
-        <v>8.170174581801088</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="D46" t="n">
-        <v>8.170174581801088</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="E46" t="n">
-        <v>8.170174581801088</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="F46" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="G46" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="H46" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="I46" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="J46" t="n">
-        <v>8.170174581801088</v>
+        <v>1.923667889819285</v>
       </c>
       <c r="K46" t="n">
-        <v>109.2760850315896</v>
+        <v>25.72905802633294</v>
       </c>
       <c r="L46" t="n">
-        <v>206.2969081904775</v>
+        <v>25.72905802633294</v>
       </c>
       <c r="M46" t="n">
-        <v>307.402818640266</v>
+        <v>48.57261421793694</v>
       </c>
       <c r="N46" t="n">
-        <v>408.5087290900544</v>
+        <v>72.3780043544506</v>
       </c>
       <c r="O46" t="n">
-        <v>408.5087290900544</v>
+        <v>72.3780043544506</v>
       </c>
       <c r="P46" t="n">
-        <v>408.5087290900544</v>
+        <v>72.3780043544506</v>
       </c>
       <c r="Q46" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="R46" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="S46" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="T46" t="n">
-        <v>408.5087290900544</v>
+        <v>96.18339449096425</v>
       </c>
       <c r="U46" t="n">
-        <v>305.3499591178185</v>
+        <v>71.89465850839751</v>
       </c>
       <c r="V46" t="n">
-        <v>202.1911891455825</v>
+        <v>47.60592252583078</v>
       </c>
       <c r="W46" t="n">
-        <v>99.03241917334651</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="X46" t="n">
-        <v>99.03241917334651</v>
+        <v>23.31718654326405</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.170174581801088</v>
+        <v>23.31718654326405</v>
       </c>
     </row>
   </sheetData>
@@ -9409,7 +9409,7 @@
         <v>30.91197545483701</v>
       </c>
       <c r="M20" t="n">
-        <v>13.6024638049731</v>
+        <v>13.60246380497313</v>
       </c>
       <c r="N20" t="n">
         <v>10.7932977627591</v>
@@ -9567,7 +9567,7 @@
         <v>35.97575015027785</v>
       </c>
       <c r="M22" t="n">
-        <v>35.7921076346076</v>
+        <v>35.79210763460761</v>
       </c>
       <c r="N22" t="n">
         <v>29.78206965893037</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.85188557492624</v>
+        <v>39.85188557492626</v>
       </c>
       <c r="K23" t="n">
-        <v>26.41447739585696</v>
+        <v>50.46032601859805</v>
       </c>
       <c r="L23" t="n">
-        <v>32.5869140574805</v>
+        <v>32.58691405748048</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>12.75636461746141</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.635058906060621</v>
       </c>
       <c r="P23" t="n">
-        <v>42.48371218348919</v>
+        <v>18.4378635607481</v>
       </c>
       <c r="Q23" t="n">
-        <v>61.86606219178876</v>
+        <v>45.47463866826673</v>
       </c>
       <c r="R23" t="n">
-        <v>82.52904299779367</v>
+        <v>82.52904299779368</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>36.09066207814832</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K24" t="n">
-        <v>10.37091611834116</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>60.1156448449495</v>
+        <v>36.0697962222084</v>
       </c>
       <c r="L25" t="n">
-        <v>50.56764968750122</v>
+        <v>26.52180106476012</v>
       </c>
       <c r="M25" t="n">
-        <v>25.82424386540238</v>
+        <v>25.82424386540239</v>
       </c>
       <c r="N25" t="n">
-        <v>44.09706803362695</v>
+        <v>43.12551859432426</v>
       </c>
       <c r="O25" t="n">
-        <v>54.9317222553703</v>
+        <v>55.90327169467294</v>
       </c>
       <c r="P25" t="n">
-        <v>39.77496457128388</v>
+        <v>63.82081319402496</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03514967784406</v>
+        <v>88.08099830058515</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>39.85188557492626</v>
+        <v>63.89773419766733</v>
       </c>
       <c r="K26" t="n">
         <v>26.41447739585698</v>
       </c>
       <c r="L26" t="n">
-        <v>8.541065434739409</v>
+        <v>28.9897655769436</v>
       </c>
       <c r="M26" t="n">
-        <v>1.340664010047202</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.10803613215707</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>18.4378635607481</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.52048729100784</v>
+        <v>45.47463866826673</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -10038,22 +10038,22 @@
         <v>36.0697962222084</v>
       </c>
       <c r="L28" t="n">
-        <v>50.56764968750123</v>
+        <v>50.56764968750119</v>
       </c>
       <c r="M28" t="n">
-        <v>49.8700924881435</v>
+        <v>48.8985430488408</v>
       </c>
       <c r="N28" t="n">
-        <v>20.05121941088585</v>
+        <v>44.09706803362693</v>
       </c>
       <c r="O28" t="n">
-        <v>31.85742307193186</v>
+        <v>55.90327169467294</v>
       </c>
       <c r="P28" t="n">
-        <v>62.84926375472232</v>
+        <v>39.77496457128389</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.08099830058516</v>
+        <v>64.03514967784406</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>39.85188557492626</v>
       </c>
       <c r="K29" t="n">
-        <v>37.31875670211389</v>
+        <v>50.46032601859805</v>
       </c>
       <c r="L29" t="n">
-        <v>8.541065434739409</v>
+        <v>32.58691405748048</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>12.75636461746141</v>
       </c>
       <c r="N29" t="n">
-        <v>9.544420835947363</v>
+        <v>3.635058906060618</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>18.4378635607481</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.52048729100784</v>
+        <v>45.47463866826673</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>82.52904299779368</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10275,22 +10275,22 @@
         <v>36.0697962222084</v>
       </c>
       <c r="L31" t="n">
-        <v>50.56764968750122</v>
+        <v>50.56764968750119</v>
       </c>
       <c r="M31" t="n">
-        <v>25.82424386540239</v>
+        <v>48.8985430488408</v>
       </c>
       <c r="N31" t="n">
-        <v>20.05121941088585</v>
+        <v>44.09706803362693</v>
       </c>
       <c r="O31" t="n">
-        <v>54.9317222553703</v>
+        <v>55.90327169467294</v>
       </c>
       <c r="P31" t="n">
-        <v>63.82081319402499</v>
+        <v>39.77496457128389</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.08099830058516</v>
+        <v>64.03514967784406</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>39.85188557492626</v>
+        <v>63.89773419766733</v>
       </c>
       <c r="K32" t="n">
         <v>26.41447739585698</v>
@@ -10357,22 +10357,22 @@
         <v>8.541065434739409</v>
       </c>
       <c r="M32" t="n">
-        <v>11.78481517815878</v>
+        <v>12.75636461746141</v>
       </c>
       <c r="N32" t="n">
-        <v>9.544420835947363</v>
+        <v>7.692335524742781</v>
       </c>
       <c r="O32" t="n">
-        <v>19.10803613215707</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.4837121834892</v>
+        <v>18.4378635607481</v>
       </c>
       <c r="Q32" t="n">
         <v>45.47463866826673</v>
       </c>
       <c r="R32" t="n">
-        <v>82.52904299779368</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>36.0697962222084</v>
+        <v>60.11564484494948</v>
       </c>
       <c r="L34" t="n">
         <v>26.52180106476012</v>
@@ -10518,16 +10518,16 @@
         <v>25.82424386540239</v>
       </c>
       <c r="N34" t="n">
-        <v>43.12551859432429</v>
+        <v>20.05121941088585</v>
       </c>
       <c r="O34" t="n">
-        <v>55.90327169467297</v>
+        <v>54.93172225537027</v>
       </c>
       <c r="P34" t="n">
-        <v>63.82081319402499</v>
+        <v>63.82081319402496</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.08099830058516</v>
+        <v>88.08099830058515</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>39.85188557492626</v>
       </c>
       <c r="K35" t="n">
-        <v>26.41447739585698</v>
+        <v>26.41447739585699</v>
       </c>
       <c r="L35" t="n">
-        <v>8.541065434739409</v>
+        <v>32.58691405748048</v>
       </c>
       <c r="M35" t="n">
-        <v>12.75636461746146</v>
+        <v>12.75636461746144</v>
       </c>
       <c r="N35" t="n">
-        <v>9.544420835947363</v>
+        <v>9.544420835947321</v>
       </c>
       <c r="O35" t="n">
-        <v>19.10803613215708</v>
+        <v>18.13648669285437</v>
       </c>
       <c r="P35" t="n">
-        <v>41.51216274418653</v>
+        <v>18.43786356074813</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.47463866826673</v>
+        <v>45.47463866826675</v>
       </c>
       <c r="R35" t="n">
         <v>82.52904299779368</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.35963743673175</v>
+        <v>28.35963743673176</v>
       </c>
       <c r="R36" t="n">
         <v>64.22956692097102</v>
@@ -10746,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>59.14409540564685</v>
+        <v>36.0697962222084</v>
       </c>
       <c r="L37" t="n">
-        <v>50.56764968750122</v>
+        <v>26.52180106476013</v>
       </c>
       <c r="M37" t="n">
         <v>25.82424386540239</v>
       </c>
       <c r="N37" t="n">
-        <v>20.05121941088585</v>
+        <v>44.09706803362693</v>
       </c>
       <c r="O37" t="n">
-        <v>55.90327169467297</v>
+        <v>54.93172225537027</v>
       </c>
       <c r="P37" t="n">
-        <v>39.77496457128389</v>
+        <v>63.82081319402497</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.08099830058518</v>
+        <v>88.08099830058515</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>63.89773419766736</v>
+        <v>63.89773419766733</v>
       </c>
       <c r="K38" t="n">
-        <v>26.41447739585698</v>
+        <v>26.41447739585699</v>
       </c>
       <c r="L38" t="n">
-        <v>32.58691405748051</v>
+        <v>32.58691405748048</v>
       </c>
       <c r="M38" t="n">
-        <v>12.75636461746145</v>
+        <v>12.75636461746144</v>
       </c>
       <c r="N38" t="n">
-        <v>3.635058906060646</v>
+        <v>3.635058906060618</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>18.4378635607481</v>
+        <v>18.43786356074813</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.47463866826673</v>
+        <v>45.47463866826675</v>
       </c>
       <c r="R38" t="n">
         <v>82.52904299779368</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.35963743673175</v>
+        <v>28.35963743673176</v>
       </c>
       <c r="R39" t="n">
         <v>64.22956692097102</v>
@@ -10983,25 +10983,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>36.0697962222084</v>
+        <v>60.11564484494948</v>
       </c>
       <c r="L40" t="n">
-        <v>49.59610024819857</v>
+        <v>26.52180106476013</v>
       </c>
       <c r="M40" t="n">
-        <v>49.8700924881435</v>
+        <v>25.82424386540239</v>
       </c>
       <c r="N40" t="n">
-        <v>20.05121941088585</v>
+        <v>43.12551859432426</v>
       </c>
       <c r="O40" t="n">
-        <v>55.90327169467297</v>
+        <v>31.85742307193187</v>
       </c>
       <c r="P40" t="n">
-        <v>39.77496457128389</v>
+        <v>63.82081319402497</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.08099830058516</v>
+        <v>88.08099830058515</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>39.85188557492626</v>
       </c>
       <c r="K41" t="n">
-        <v>26.41447739585698</v>
+        <v>26.41447739585699</v>
       </c>
       <c r="L41" t="n">
-        <v>20.32588061289819</v>
+        <v>32.58691405748047</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>9.544420835947363</v>
+        <v>1.340664010047151</v>
       </c>
       <c r="O41" t="n">
-        <v>19.10803613215708</v>
+        <v>19.10803613215703</v>
       </c>
       <c r="P41" t="n">
-        <v>42.48371218348922</v>
+        <v>18.43786356074813</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.47463866826673</v>
+        <v>45.47463866826675</v>
       </c>
       <c r="R41" t="n">
-        <v>82.52904299779368</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.35963743673175</v>
+        <v>28.35963743673176</v>
       </c>
       <c r="R42" t="n">
         <v>64.22956692097102</v>
@@ -11220,25 +11220,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>36.0697962222084</v>
+        <v>60.11564484494946</v>
       </c>
       <c r="L43" t="n">
-        <v>50.56764968750122</v>
+        <v>50.56764968750119</v>
       </c>
       <c r="M43" t="n">
-        <v>49.8700924881435</v>
+        <v>25.82424386540239</v>
       </c>
       <c r="N43" t="n">
-        <v>20.05121941088585</v>
+        <v>20.05121941088586</v>
       </c>
       <c r="O43" t="n">
-        <v>31.85742307193186</v>
+        <v>54.93172225537026</v>
       </c>
       <c r="P43" t="n">
-        <v>62.84926375472232</v>
+        <v>39.7749645712839</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.08099830058518</v>
+        <v>88.08099830058514</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.609592408025833</v>
+        <v>39.85188557492626</v>
       </c>
       <c r="K44" t="n">
-        <v>32.02652051559406</v>
+        <v>50.46032601859805</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.541065434739409</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>11.78481517815876</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>9.544420835947307</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>19.10803613215703</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>18.43786356074813</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.634258854400656</v>
+        <v>45.47463866826675</v>
       </c>
       <c r="R44" t="n">
-        <v>56.44572868511975</v>
+        <v>82.52904299779368</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>15.10059370182076</v>
+        <v>36.09066207814833</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>10.37091611834117</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>28.35963743673176</v>
       </c>
       <c r="R45" t="n">
-        <v>50.43562012484767</v>
+        <v>64.22956692097102</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.29764808962184</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>116.5570970729853</v>
+        <v>60.11564484494946</v>
       </c>
       <c r="L46" t="n">
-        <v>96.83103466897259</v>
+        <v>26.52180106476013</v>
       </c>
       <c r="M46" t="n">
-        <v>98.75451883314247</v>
+        <v>48.89854304884079</v>
       </c>
       <c r="N46" t="n">
-        <v>93.67573157603687</v>
+        <v>44.09706803362692</v>
       </c>
       <c r="O46" t="n">
-        <v>5.530593936942651</v>
+        <v>31.85742307193187</v>
       </c>
       <c r="P46" t="n">
-        <v>17.24781414602685</v>
+        <v>39.7749645712839</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.43851839649691</v>
+        <v>88.08099830058514</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>375.3102147873726</v>
       </c>
       <c r="C23" t="n">
-        <v>365.1978978593576</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24220,10 +24220,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>384.0682943727381</v>
+        <v>408.1141429954793</v>
       </c>
       <c r="H23" t="n">
-        <v>311.451147693261</v>
+        <v>287.40529907052</v>
       </c>
       <c r="I23" t="n">
         <v>101.6016830141787</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.952624700512</v>
+        <v>119.906776077771</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2514947476595</v>
+        <v>193.2056461249184</v>
       </c>
       <c r="U23" t="n">
-        <v>229.0759948500944</v>
+        <v>253.1218434728356</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24293,19 +24293,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>111.0361773574801</v>
       </c>
       <c r="F24" t="n">
-        <v>99.14163943295841</v>
+        <v>99.14163943295844</v>
       </c>
       <c r="G24" t="n">
-        <v>94.32274091775777</v>
+        <v>118.3685895404989</v>
       </c>
       <c r="H24" t="n">
         <v>82.67598732839438</v>
       </c>
       <c r="I24" t="n">
-        <v>7.955220827267517</v>
+        <v>32.00106945000863</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>173.236389641508</v>
       </c>
       <c r="U24" t="n">
-        <v>186.750650118053</v>
+        <v>183.8843849622223</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>199.1350181457333</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.3100898816471</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>144.4572181319296</v>
+        <v>147.3234832877604</v>
       </c>
       <c r="D25" t="n">
-        <v>132.8971984996</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>129.9573753966484</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24387,7 +24387,7 @@
         <v>119.393729793548</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9936059780393371</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>104.1671820107276</v>
       </c>
       <c r="S25" t="n">
-        <v>193.6195997409802</v>
+        <v>169.5737511182391</v>
       </c>
       <c r="T25" t="n">
-        <v>231.6043694396876</v>
+        <v>207.5585208169465</v>
       </c>
       <c r="U25" t="n">
         <v>282.5619677740445</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.835091948782</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>357.5408688727578</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>374.5118410118798</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>388.6796454625809</v>
       </c>
       <c r="G26" t="n">
-        <v>386.9345595285689</v>
+        <v>408.1141429954793</v>
       </c>
       <c r="H26" t="n">
-        <v>311.451147693261</v>
+        <v>287.40529907052</v>
       </c>
       <c r="I26" t="n">
         <v>101.6016830141787</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.952624700512</v>
+        <v>119.906776077771</v>
       </c>
       <c r="T26" t="n">
         <v>217.2514947476595</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1218434728356</v>
+        <v>231.9422600059252</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>126.2325224738106</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24533,16 +24533,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>99.14163943295844</v>
       </c>
       <c r="G27" t="n">
-        <v>118.3685895404989</v>
+        <v>94.3227409177578</v>
       </c>
       <c r="H27" t="n">
         <v>82.67598732839438</v>
       </c>
       <c r="I27" t="n">
-        <v>10.82148598309826</v>
+        <v>32.00106945000863</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,13 +24578,13 @@
         <v>173.236389641508</v>
       </c>
       <c r="U27" t="n">
-        <v>183.8843849622222</v>
+        <v>186.750650118053</v>
       </c>
       <c r="V27" t="n">
-        <v>196.2687529899025</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>203.7702247853049</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24615,13 +24615,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>142.1143368534596</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H28" t="n">
-        <v>126.2208380701929</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I28" t="n">
-        <v>98.21414632663762</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J28" t="n">
         <v>0.9936059780393407</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>104.1671820107276</v>
+        <v>80.1213333879865</v>
       </c>
       <c r="S28" t="n">
         <v>193.6195997409802</v>
       </c>
       <c r="T28" t="n">
-        <v>231.6043694396876</v>
+        <v>207.5585208169465</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5619677740445</v>
+        <v>258.5161191513035</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>256.451249425393</v>
+        <v>259.3175145812238</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.952624700512</v>
+        <v>119.906776077771</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2514947476595</v>
+        <v>193.2056461249184</v>
       </c>
       <c r="U29" t="n">
-        <v>229.0759948500944</v>
+        <v>229.0759948500945</v>
       </c>
       <c r="V29" t="n">
-        <v>314.6398925807757</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>361.5122303935326</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>126.2325224738106</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
@@ -24767,10 +24767,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>111.0361773574801</v>
       </c>
       <c r="F30" t="n">
-        <v>99.14163943295841</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
         <v>118.3685895404989</v>
@@ -24779,7 +24779,7 @@
         <v>82.67598732839438</v>
       </c>
       <c r="I30" t="n">
-        <v>32.00106945000863</v>
+        <v>7.955220827267553</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>100.4222807748763</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T30" t="n">
-        <v>173.236389641508</v>
+        <v>152.0568061745977</v>
       </c>
       <c r="U30" t="n">
         <v>207.9302335849633</v>
@@ -24824,10 +24824,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>163.3681582507473</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>156.3414912883375</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>159.3100898816472</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>144.4572181319296</v>
       </c>
       <c r="D31" t="n">
-        <v>130.0309333437693</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>129.9573753966484</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>131.7068268164157</v>
+        <v>135.5666979502858</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1601854762007</v>
+        <v>142.1143368534596</v>
       </c>
       <c r="H31" t="n">
         <v>150.266686692934</v>
@@ -24861,7 +24861,7 @@
         <v>119.393729793548</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9936059780393407</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>231.6043694396876</v>
       </c>
       <c r="U31" t="n">
-        <v>261.3823843071342</v>
+        <v>282.5619677740445</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24919,7 +24919,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>368.0641630151883</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24928,10 +24928,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>388.6796454625809</v>
       </c>
       <c r="G32" t="n">
-        <v>384.0682943727381</v>
+        <v>408.1141429954793</v>
       </c>
       <c r="H32" t="n">
         <v>311.451147693261</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9067760777709</v>
+        <v>119.906776077771</v>
       </c>
       <c r="T32" t="n">
         <v>217.2514947476595</v>
@@ -24976,13 +24976,13 @@
         <v>253.1218434728356</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>314.6398925807757</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>346.1094612144851</v>
       </c>
       <c r="X32" t="n">
-        <v>361.5122303935326</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25007,13 +25007,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>99.14163943295841</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>94.32274091775777</v>
+        <v>94.3227409177578</v>
       </c>
       <c r="H33" t="n">
-        <v>82.67598732839438</v>
+        <v>58.63013870565331</v>
       </c>
       <c r="I33" t="n">
         <v>32.00106945000863</v>
@@ -25052,13 +25052,13 @@
         <v>173.236389641508</v>
       </c>
       <c r="U33" t="n">
-        <v>186.750650118053</v>
+        <v>183.8843849622223</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>199.1350181457333</v>
       </c>
       <c r="W33" t="n">
-        <v>203.7702247853049</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
@@ -25077,13 +25077,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>144.4572181319296</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>130.0309333437693</v>
       </c>
       <c r="E34" t="n">
-        <v>133.8172465305185</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>131.7068268164157</v>
@@ -25092,13 +25092,13 @@
         <v>166.1601854762007</v>
       </c>
       <c r="H34" t="n">
-        <v>150.266686692934</v>
+        <v>126.2208380701929</v>
       </c>
       <c r="I34" t="n">
         <v>119.393729793548</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.9936059780393407</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.12133338798647</v>
+        <v>82.98759854381723</v>
       </c>
       <c r="S34" t="n">
         <v>193.6195997409802</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>375.3102147873726</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25162,13 +25162,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>374.5118410118798</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>388.6796454625809</v>
+        <v>391.5459106184117</v>
       </c>
       <c r="G35" t="n">
-        <v>384.0682943727381</v>
+        <v>408.1141429954793</v>
       </c>
       <c r="H35" t="n">
         <v>311.451147693261</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.952624700512</v>
+        <v>119.906776077771</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2514947476595</v>
+        <v>193.2056461249184</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1218434728356</v>
+        <v>229.0759948500945</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25235,13 +25235,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>127.9681046685983</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>104.7422290819934</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>111.03617735748</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -25250,7 +25250,7 @@
         <v>118.3685895404989</v>
       </c>
       <c r="H36" t="n">
-        <v>82.67598732839438</v>
+        <v>61.49640386148405</v>
       </c>
       <c r="I36" t="n">
         <v>32.00106945000863</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>124.4681293976174</v>
+        <v>100.4222807748764</v>
       </c>
       <c r="T36" t="n">
-        <v>173.236389641508</v>
+        <v>149.190541018767</v>
       </c>
       <c r="U36" t="n">
         <v>207.9302335849633</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>162.1763550374779</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25335,7 +25335,7 @@
         <v>119.393729793548</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9936059780393407</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>104.1671820107276</v>
+        <v>83.98120452185658</v>
       </c>
       <c r="S37" t="n">
         <v>193.6195997409802</v>
@@ -25368,16 +25368,16 @@
         <v>231.6043694396876</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5619677740445</v>
+        <v>258.5161191513035</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>256.451249425393</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>207.6936703721056</v>
+        <v>207.6936703721057</v>
       </c>
       <c r="Y37" t="n">
         <v>196.835091948782</v>
@@ -25399,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>377.3781061677105</v>
       </c>
       <c r="F38" t="n">
-        <v>391.5459106184117</v>
+        <v>388.6796454625809</v>
       </c>
       <c r="G38" t="n">
-        <v>384.0682943727381</v>
+        <v>384.0682943727382</v>
       </c>
       <c r="H38" t="n">
-        <v>287.4052990705199</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I38" t="n">
         <v>101.6016830141787</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.952624700512</v>
+        <v>119.906776077771</v>
       </c>
       <c r="T38" t="n">
         <v>217.2514947476595</v>
@@ -25453,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>343.2431960586543</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25481,10 +25481,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>102.0079045887892</v>
       </c>
       <c r="G39" t="n">
-        <v>118.3685895404989</v>
+        <v>94.3227409177578</v>
       </c>
       <c r="H39" t="n">
         <v>82.67598732839438</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>124.4681293976174</v>
+        <v>100.4222807748764</v>
       </c>
       <c r="T39" t="n">
         <v>173.236389641508</v>
       </c>
       <c r="U39" t="n">
-        <v>183.8843849622222</v>
+        <v>207.9302335849633</v>
       </c>
       <c r="V39" t="n">
-        <v>196.2687529899025</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>203.7702247853049</v>
       </c>
       <c r="X39" t="n">
-        <v>166.2344234065781</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25551,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>148.3170892657997</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25560,10 +25560,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>131.7068268164157</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.1601854762007</v>
+        <v>142.1143368534596</v>
       </c>
       <c r="H40" t="n">
         <v>150.266686692934</v>
@@ -25572,7 +25572,7 @@
         <v>119.393729793548</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9936059780393407</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>104.1671820107276</v>
+        <v>80.1213333879865</v>
       </c>
       <c r="S40" t="n">
         <v>193.6195997409802</v>
@@ -25605,13 +25605,13 @@
         <v>231.6043694396876</v>
       </c>
       <c r="U40" t="n">
-        <v>258.5161191513034</v>
+        <v>258.5161191513035</v>
       </c>
       <c r="V40" t="n">
-        <v>239.2737031046429</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>259.3175145812238</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,19 +25630,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>368.0641630151884</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>374.5118410118798</v>
       </c>
       <c r="F41" t="n">
-        <v>388.6796454625809</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>384.0682943727381</v>
+        <v>408.1141429954793</v>
       </c>
       <c r="H41" t="n">
         <v>311.451147693261</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.9067760777709</v>
+        <v>143.952624700512</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2514947476595</v>
+        <v>193.2056461249184</v>
       </c>
       <c r="U41" t="n">
-        <v>231.9422600059252</v>
+        <v>253.1218434728356</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>368.4799533658638</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>107.6084942378241</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>99.14163943295841</v>
+        <v>99.14163943295846</v>
       </c>
       <c r="G42" t="n">
-        <v>94.32274091775777</v>
+        <v>94.32274091775781</v>
       </c>
       <c r="H42" t="n">
         <v>82.67598732839438</v>
       </c>
       <c r="I42" t="n">
-        <v>32.00106945000863</v>
+        <v>7.955220827267567</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,13 +25763,13 @@
         <v>173.236389641508</v>
       </c>
       <c r="U42" t="n">
-        <v>186.750650118053</v>
+        <v>207.9302335849633</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>203.7702247853049</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -25791,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>133.8908044776394</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25809,7 +25809,7 @@
         <v>119.393729793548</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9936059780393407</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>193.6195997409802</v>
       </c>
       <c r="T43" t="n">
-        <v>207.5585208169465</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5161191513034</v>
+        <v>258.5161191513035</v>
       </c>
       <c r="V43" t="n">
-        <v>239.2737031046429</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>259.3175145812238</v>
+        <v>256.4512494253931</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>207.6936703721057</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.3626159817693</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25879,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>305.5717287676567</v>
+        <v>408.1141429954793</v>
       </c>
       <c r="H44" t="n">
-        <v>307.1986534309536</v>
+        <v>311.451147693261</v>
       </c>
       <c r="I44" t="n">
-        <v>85.59345305713158</v>
+        <v>77.55583439143766</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>134.49052651891</v>
+        <v>119.906776077771</v>
       </c>
       <c r="T44" t="n">
-        <v>215.4338168632947</v>
+        <v>196.0719112807492</v>
       </c>
       <c r="U44" t="n">
-        <v>150.9614426438972</v>
+        <v>253.1218434728356</v>
       </c>
       <c r="V44" t="n">
-        <v>248.7321190578868</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>343.2431960586543</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>60.32474895092176</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>47.02050586299509</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>113.9024425133108</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.1464208579956</v>
+        <v>118.3685895404989</v>
       </c>
       <c r="H45" t="n">
-        <v>80.53030557895502</v>
+        <v>82.67598732839438</v>
       </c>
       <c r="I45" t="n">
-        <v>24.35184068838329</v>
+        <v>7.955220827267567</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.341443562524</v>
+        <v>124.4681293976174</v>
       </c>
       <c r="T45" t="n">
-        <v>172.3408939431725</v>
+        <v>149.190541018767</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9156172242723</v>
+        <v>207.9302335849633</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>196.2687529899026</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>85.28682460097485</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>75.39389248273423</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26034,19 +26034,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>134.5730919722465</v>
       </c>
       <c r="G46" t="n">
-        <v>165.9739267159197</v>
+        <v>166.1601854762007</v>
       </c>
       <c r="H46" t="n">
-        <v>148.6106769878903</v>
+        <v>150.266686692934</v>
       </c>
       <c r="I46" t="n">
-        <v>113.7924208934615</v>
+        <v>119.393729793548</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.9936059780393443</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>95.79231084391148</v>
+        <v>104.1671820107276</v>
       </c>
       <c r="S46" t="n">
-        <v>190.3736175277197</v>
+        <v>193.6195997409802</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8085365548506</v>
+        <v>231.6043694396876</v>
       </c>
       <c r="U46" t="n">
-        <v>180.4246259327883</v>
+        <v>258.5161191513035</v>
       </c>
       <c r="V46" t="n">
-        <v>161.1923694548704</v>
+        <v>239.2737031046429</v>
       </c>
       <c r="W46" t="n">
-        <v>178.3699157756205</v>
+        <v>256.4512494253931</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9273184258931</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>255119.0769621577</v>
+        <v>255119.0769621578</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>255119.0769621578</v>
+        <v>255119.0769621577</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>255119.0769621578</v>
+        <v>255119.0769621576</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>255119.0769621579</v>
+        <v>255119.0769621578</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>255119.0769621578</v>
+        <v>255119.0769621576</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>319137.6113880627</v>
+        <v>255119.0769621576</v>
       </c>
     </row>
   </sheetData>
@@ -26322,28 +26322,28 @@
         <v>52601.96015041335</v>
       </c>
       <c r="E2" t="n">
-        <v>56442.30737401226</v>
+        <v>56442.30737401224</v>
       </c>
       <c r="F2" t="n">
-        <v>56442.30737401226</v>
+        <v>56442.30737401224</v>
       </c>
       <c r="G2" t="n">
+        <v>56600.31387928507</v>
+      </c>
+      <c r="H2" t="n">
         <v>56600.31387928506</v>
       </c>
-      <c r="H2" t="n">
-        <v>56600.31387928505</v>
-      </c>
       <c r="I2" t="n">
+        <v>61844.09719955812</v>
+      </c>
+      <c r="J2" t="n">
         <v>61844.09719955811</v>
       </c>
-      <c r="J2" t="n">
-        <v>61844.09719955813</v>
-      </c>
       <c r="K2" t="n">
-        <v>61844.09719955813</v>
+        <v>61844.09719955811</v>
       </c>
       <c r="L2" t="n">
-        <v>61844.09719955811</v>
+        <v>61844.09719955812</v>
       </c>
       <c r="M2" t="n">
         <v>61844.09719955811</v>
@@ -26352,10 +26352,10 @@
         <v>61844.09719955812</v>
       </c>
       <c r="O2" t="n">
+        <v>61844.09719955813</v>
+      </c>
+      <c r="P2" t="n">
         <v>61844.09719955811</v>
-      </c>
-      <c r="P2" t="n">
-        <v>78618.18857482576</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>32938.47453466272</v>
+        <v>32938.4745346627</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>87203.04260194532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="C4" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="D4" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="E4" t="n">
         <v>10309.9736794318</v>
@@ -26432,34 +26432,34 @@
         <v>10309.9736794318</v>
       </c>
       <c r="G4" t="n">
-        <v>9128.390207679213</v>
+        <v>9128.390207679215</v>
       </c>
       <c r="H4" t="n">
-        <v>9128.390207679213</v>
+        <v>9128.390207679215</v>
       </c>
       <c r="I4" t="n">
         <v>7763.539557991571</v>
       </c>
       <c r="J4" t="n">
-        <v>7763.539557991574</v>
+        <v>7763.539557991571</v>
       </c>
       <c r="K4" t="n">
-        <v>7763.539557991574</v>
+        <v>7763.539557991571</v>
       </c>
       <c r="L4" t="n">
-        <v>7763.539557991575</v>
+        <v>7763.539557991572</v>
       </c>
       <c r="M4" t="n">
-        <v>7763.539557991575</v>
+        <v>7763.539557991573</v>
       </c>
       <c r="N4" t="n">
-        <v>7763.539557991574</v>
+        <v>7763.539557991573</v>
       </c>
       <c r="O4" t="n">
-        <v>7763.539557991575</v>
+        <v>7763.539557991571</v>
       </c>
       <c r="P4" t="n">
-        <v>4753.41682960539</v>
+        <v>7763.539557991571</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>4203.847076395649</v>
       </c>
       <c r="I5" t="n">
-        <v>6434.567795681513</v>
+        <v>6434.567795681511</v>
       </c>
       <c r="J5" t="n">
-        <v>6434.567795681513</v>
+        <v>6434.567795681511</v>
       </c>
       <c r="K5" t="n">
-        <v>6434.567795681513</v>
+        <v>6434.567795681511</v>
       </c>
       <c r="L5" t="n">
-        <v>6434.567795681513</v>
+        <v>6434.567795681511</v>
       </c>
       <c r="M5" t="n">
-        <v>6434.567795681513</v>
+        <v>6434.567795681511</v>
       </c>
       <c r="N5" t="n">
-        <v>6434.567795681513</v>
+        <v>6434.567795681511</v>
       </c>
       <c r="O5" t="n">
-        <v>6434.567795681513</v>
+        <v>6434.56779568151</v>
       </c>
       <c r="P5" t="n">
-        <v>13433.61196723913</v>
+        <v>6434.56779568151</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11083.90279267998</v>
+        <v>-12511.49628682488</v>
       </c>
       <c r="C6" t="n">
-        <v>-11083.90279267999</v>
+        <v>-12511.49628682489</v>
       </c>
       <c r="D6" t="n">
-        <v>-11083.90279267999</v>
+        <v>-12511.49628682488</v>
       </c>
       <c r="E6" t="n">
-        <v>-103323.3316090401</v>
+        <v>-104723.4940515879</v>
       </c>
       <c r="F6" t="n">
-        <v>42184.05247938987</v>
+        <v>40783.89003684209</v>
       </c>
       <c r="G6" t="n">
-        <v>34153.43738737852</v>
+        <v>32754.40356272557</v>
       </c>
       <c r="H6" t="n">
-        <v>43268.07659521019</v>
+        <v>41869.04277055724</v>
       </c>
       <c r="I6" t="n">
-        <v>14707.51531122231</v>
+        <v>13345.93708171419</v>
       </c>
       <c r="J6" t="n">
-        <v>47645.98984588504</v>
+        <v>46284.41161637688</v>
       </c>
       <c r="K6" t="n">
-        <v>47645.98984588504</v>
+        <v>46284.41161637688</v>
       </c>
       <c r="L6" t="n">
-        <v>47645.98984588502</v>
+        <v>46284.41161637688</v>
       </c>
       <c r="M6" t="n">
-        <v>47645.98984588502</v>
+        <v>46284.41161637688</v>
       </c>
       <c r="N6" t="n">
-        <v>47645.98984588504</v>
+        <v>46284.41161637688</v>
       </c>
       <c r="O6" t="n">
-        <v>47645.98984588502</v>
+        <v>46284.41161637689</v>
       </c>
       <c r="P6" t="n">
-        <v>-26771.88282396407</v>
+        <v>46284.41161637688</v>
       </c>
     </row>
   </sheetData>
@@ -26758,7 +26758,7 @@
         <v>192.8370218530114</v>
       </c>
       <c r="I3" t="n">
-        <v>228.1000091476539</v>
+        <v>228.1000091476538</v>
       </c>
       <c r="J3" t="n">
         <v>228.1000091476538</v>
@@ -26779,7 +26779,7 @@
         <v>228.1000091476538</v>
       </c>
       <c r="P3" t="n">
-        <v>331.3889580307476</v>
+        <v>228.1000091476538</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="J4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="K4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="L4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="M4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="P4" t="n">
-        <v>102.1271822725136</v>
+        <v>24.04584862274106</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35.26298729464241</v>
+        <v>35.26298729464239</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>103.2889488830938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>78.0813336497725</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32469,7 +32469,7 @@
         <v>7.939264924832774</v>
       </c>
       <c r="I20" t="n">
-        <v>29.88683129643507</v>
+        <v>29.88683129643508</v>
       </c>
       <c r="J20" t="n">
         <v>65.79618566229962</v>
@@ -32481,7 +32481,7 @@
         <v>122.3361942756547</v>
       </c>
       <c r="M20" t="n">
-        <v>136.1225877927542</v>
+        <v>136.1225877927541</v>
       </c>
       <c r="N20" t="n">
         <v>138.325193575025</v>
@@ -32545,7 +32545,7 @@
         <v>0.4147815187027039</v>
       </c>
       <c r="H21" t="n">
-        <v>4.00591624641822</v>
+        <v>4.005916246418219</v>
       </c>
       <c r="I21" t="n">
         <v>14.2808549202466</v>
@@ -32578,7 +32578,7 @@
         <v>25.7528385033135</v>
       </c>
       <c r="S21" t="n">
-        <v>7.70438478818399</v>
+        <v>7.704384788183989</v>
       </c>
       <c r="T21" t="n">
         <v>1.671860595121863</v>
@@ -32639,13 +32639,13 @@
         <v>51.69928943252704</v>
       </c>
       <c r="M22" t="n">
-        <v>54.50965193133567</v>
+        <v>54.50965193133566</v>
       </c>
       <c r="N22" t="n">
         <v>53.2135342434712</v>
       </c>
       <c r="O22" t="n">
-        <v>49.15131173394464</v>
+        <v>49.15131173394463</v>
       </c>
       <c r="P22" t="n">
         <v>42.05743833987644</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9169849613976028</v>
+        <v>0.9169849613976025</v>
       </c>
       <c r="H23" t="n">
-        <v>9.391072235913201</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I23" t="n">
         <v>35.35206272428111</v>
       </c>
       <c r="J23" t="n">
-        <v>77.82795236741985</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K23" t="n">
         <v>116.6439257833804</v>
@@ -32721,28 +32721,28 @@
         <v>161.0145356030069</v>
       </c>
       <c r="N23" t="n">
-        <v>163.6199191245779</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O23" t="n">
-        <v>154.5016499146805</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P23" t="n">
         <v>131.8635836801771</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.02405975012545</v>
+        <v>99.02405975012543</v>
       </c>
       <c r="R23" t="n">
-        <v>57.60155658139222</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S23" t="n">
         <v>20.89579480784789</v>
       </c>
       <c r="T23" t="n">
-        <v>4.014101668518008</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0733587969118082</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>16.8923119981989</v>
       </c>
       <c r="J24" t="n">
-        <v>46.35379525518503</v>
+        <v>46.35379525518502</v>
       </c>
       <c r="K24" t="n">
-        <v>79.22601921499219</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L24" t="n">
         <v>106.5291599325906</v>
@@ -32800,16 +32800,16 @@
         <v>116.432970672053</v>
       </c>
       <c r="N24" t="n">
-        <v>109.4179614769078</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O24" t="n">
         <v>116.73340751163</v>
       </c>
       <c r="P24" t="n">
-        <v>93.68885092708071</v>
+        <v>93.68885092708069</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.62851571918225</v>
+        <v>62.62851571918224</v>
       </c>
       <c r="R24" t="n">
         <v>30.46211065560556</v>
@@ -32876,13 +32876,13 @@
         <v>61.15323851804477</v>
       </c>
       <c r="M25" t="n">
-        <v>64.47751570054089</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N25" t="n">
-        <v>62.94438449151573</v>
+        <v>62.94438449151572</v>
       </c>
       <c r="O25" t="n">
-        <v>58.13932692176595</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P25" t="n">
         <v>49.74823806066205</v>
@@ -32894,13 +32894,13 @@
         <v>18.49479746302124</v>
       </c>
       <c r="S25" t="n">
-        <v>7.168323238295939</v>
+        <v>7.168323238295938</v>
       </c>
       <c r="T25" t="n">
         <v>1.757491873760611</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02243606647353975</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>116.432970672053</v>
       </c>
       <c r="N27" t="n">
-        <v>109.4179614769078</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O27" t="n">
         <v>116.73340751163</v>
@@ -33274,7 +33274,7 @@
         <v>116.432970672053</v>
       </c>
       <c r="N30" t="n">
-        <v>109.4179614769078</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O30" t="n">
         <v>116.73340751163</v>
@@ -33511,7 +33511,7 @@
         <v>116.432970672053</v>
       </c>
       <c r="N33" t="n">
-        <v>109.4179614769078</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O33" t="n">
         <v>116.73340751163</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9169849613976025</v>
+        <v>0.9169849613976024</v>
       </c>
       <c r="H35" t="n">
         <v>9.3910722359132</v>
       </c>
       <c r="I35" t="n">
-        <v>35.35206272428111</v>
+        <v>35.3520627242811</v>
       </c>
       <c r="J35" t="n">
         <v>77.82795236741984</v>
@@ -33678,7 +33678,7 @@
         <v>131.8635836801771</v>
       </c>
       <c r="Q35" t="n">
-        <v>99.02405975012543</v>
+        <v>99.02405975012542</v>
       </c>
       <c r="R35" t="n">
         <v>57.6015565813922</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4906302083553309</v>
+        <v>0.4906302083553308</v>
       </c>
       <c r="H36" t="n">
-        <v>4.738454907010697</v>
+        <v>4.738454907010696</v>
       </c>
       <c r="I36" t="n">
-        <v>16.8923119981989</v>
+        <v>16.89231199819889</v>
       </c>
       <c r="J36" t="n">
-        <v>46.35379525518502</v>
+        <v>46.35379525518501</v>
       </c>
       <c r="K36" t="n">
         <v>79.22601921499218</v>
@@ -33748,22 +33748,22 @@
         <v>116.432970672053</v>
       </c>
       <c r="N36" t="n">
-        <v>109.4179614769078</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O36" t="n">
-        <v>116.73340751163</v>
+        <v>116.7334075116299</v>
       </c>
       <c r="P36" t="n">
-        <v>93.68885092708069</v>
+        <v>93.68885092708068</v>
       </c>
       <c r="Q36" t="n">
-        <v>62.62851571918224</v>
+        <v>62.62851571918223</v>
       </c>
       <c r="R36" t="n">
-        <v>30.46211065560556</v>
+        <v>30.46211065560555</v>
       </c>
       <c r="S36" t="n">
-        <v>9.11324093151239</v>
+        <v>9.113240931512388</v>
       </c>
       <c r="T36" t="n">
         <v>1.977584041572583</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4113278853482282</v>
+        <v>0.4113278853482281</v>
       </c>
       <c r="H37" t="n">
-        <v>3.657078835186977</v>
+        <v>3.657078835186976</v>
       </c>
       <c r="I37" t="n">
         <v>12.3697513157449</v>
@@ -33821,31 +33821,31 @@
         <v>47.78882158863959</v>
       </c>
       <c r="L37" t="n">
-        <v>61.15323851804477</v>
+        <v>61.15323851804476</v>
       </c>
       <c r="M37" t="n">
         <v>64.47751570054088</v>
       </c>
       <c r="N37" t="n">
-        <v>62.94438449151572</v>
+        <v>62.94438449151571</v>
       </c>
       <c r="O37" t="n">
         <v>58.13932692176594</v>
       </c>
       <c r="P37" t="n">
-        <v>49.74823806066205</v>
+        <v>49.74823806066204</v>
       </c>
       <c r="Q37" t="n">
-        <v>34.44310138129573</v>
+        <v>34.44310138129572</v>
       </c>
       <c r="R37" t="n">
-        <v>18.49479746302124</v>
+        <v>18.49479746302123</v>
       </c>
       <c r="S37" t="n">
-        <v>7.168323238295938</v>
+        <v>7.168323238295937</v>
       </c>
       <c r="T37" t="n">
-        <v>1.757491873760611</v>
+        <v>1.75749187376061</v>
       </c>
       <c r="U37" t="n">
         <v>0.02243606647353974</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9169849613976025</v>
+        <v>0.9169849613976024</v>
       </c>
       <c r="H38" t="n">
         <v>9.3910722359132</v>
       </c>
       <c r="I38" t="n">
-        <v>35.35206272428111</v>
+        <v>35.3520627242811</v>
       </c>
       <c r="J38" t="n">
         <v>77.82795236741984</v>
@@ -33915,7 +33915,7 @@
         <v>131.8635836801771</v>
       </c>
       <c r="Q38" t="n">
-        <v>99.02405975012543</v>
+        <v>99.02405975012542</v>
       </c>
       <c r="R38" t="n">
         <v>57.6015565813922</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4906302083553309</v>
+        <v>0.4906302083553308</v>
       </c>
       <c r="H39" t="n">
-        <v>4.738454907010697</v>
+        <v>4.738454907010696</v>
       </c>
       <c r="I39" t="n">
-        <v>16.8923119981989</v>
+        <v>16.89231199819889</v>
       </c>
       <c r="J39" t="n">
-        <v>46.35379525518502</v>
+        <v>46.35379525518501</v>
       </c>
       <c r="K39" t="n">
         <v>79.22601921499218</v>
@@ -33985,22 +33985,22 @@
         <v>116.432970672053</v>
       </c>
       <c r="N39" t="n">
-        <v>109.4179614769078</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O39" t="n">
-        <v>116.73340751163</v>
+        <v>116.7334075116299</v>
       </c>
       <c r="P39" t="n">
-        <v>93.68885092708069</v>
+        <v>93.68885092708068</v>
       </c>
       <c r="Q39" t="n">
-        <v>62.62851571918224</v>
+        <v>62.62851571918223</v>
       </c>
       <c r="R39" t="n">
-        <v>30.46211065560556</v>
+        <v>30.46211065560555</v>
       </c>
       <c r="S39" t="n">
-        <v>9.11324093151239</v>
+        <v>9.113240931512388</v>
       </c>
       <c r="T39" t="n">
         <v>1.977584041572583</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4113278853482282</v>
+        <v>0.4113278853482281</v>
       </c>
       <c r="H40" t="n">
-        <v>3.657078835186977</v>
+        <v>3.657078835186976</v>
       </c>
       <c r="I40" t="n">
         <v>12.3697513157449</v>
@@ -34058,31 +34058,31 @@
         <v>47.78882158863959</v>
       </c>
       <c r="L40" t="n">
-        <v>61.15323851804477</v>
+        <v>61.15323851804476</v>
       </c>
       <c r="M40" t="n">
         <v>64.47751570054088</v>
       </c>
       <c r="N40" t="n">
-        <v>62.94438449151572</v>
+        <v>62.94438449151571</v>
       </c>
       <c r="O40" t="n">
         <v>58.13932692176594</v>
       </c>
       <c r="P40" t="n">
-        <v>49.74823806066205</v>
+        <v>49.74823806066204</v>
       </c>
       <c r="Q40" t="n">
-        <v>34.44310138129573</v>
+        <v>34.44310138129572</v>
       </c>
       <c r="R40" t="n">
-        <v>18.49479746302124</v>
+        <v>18.49479746302123</v>
       </c>
       <c r="S40" t="n">
-        <v>7.168323238295938</v>
+        <v>7.168323238295937</v>
       </c>
       <c r="T40" t="n">
-        <v>1.757491873760611</v>
+        <v>1.75749187376061</v>
       </c>
       <c r="U40" t="n">
         <v>0.02243606647353974</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9169849613976025</v>
+        <v>0.9169849613976024</v>
       </c>
       <c r="H41" t="n">
         <v>9.3910722359132</v>
       </c>
       <c r="I41" t="n">
-        <v>35.35206272428111</v>
+        <v>35.3520627242811</v>
       </c>
       <c r="J41" t="n">
         <v>77.82795236741984</v>
@@ -34152,7 +34152,7 @@
         <v>131.8635836801771</v>
       </c>
       <c r="Q41" t="n">
-        <v>99.02405975012543</v>
+        <v>99.02405975012542</v>
       </c>
       <c r="R41" t="n">
         <v>57.6015565813922</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4906302083553309</v>
+        <v>0.4906302083553308</v>
       </c>
       <c r="H42" t="n">
-        <v>4.738454907010697</v>
+        <v>4.738454907010696</v>
       </c>
       <c r="I42" t="n">
-        <v>16.8923119981989</v>
+        <v>16.89231199819889</v>
       </c>
       <c r="J42" t="n">
-        <v>46.35379525518502</v>
+        <v>46.35379525518501</v>
       </c>
       <c r="K42" t="n">
         <v>79.22601921499218</v>
@@ -34222,22 +34222,22 @@
         <v>116.432970672053</v>
       </c>
       <c r="N42" t="n">
-        <v>109.4179614769078</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O42" t="n">
-        <v>116.73340751163</v>
+        <v>116.7334075116299</v>
       </c>
       <c r="P42" t="n">
-        <v>93.68885092708069</v>
+        <v>93.68885092708068</v>
       </c>
       <c r="Q42" t="n">
-        <v>62.62851571918224</v>
+        <v>62.62851571918223</v>
       </c>
       <c r="R42" t="n">
-        <v>30.46211065560556</v>
+        <v>30.46211065560555</v>
       </c>
       <c r="S42" t="n">
-        <v>9.11324093151239</v>
+        <v>9.113240931512388</v>
       </c>
       <c r="T42" t="n">
         <v>1.977584041572583</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4113278853482282</v>
+        <v>0.4113278853482281</v>
       </c>
       <c r="H43" t="n">
-        <v>3.657078835186977</v>
+        <v>3.657078835186976</v>
       </c>
       <c r="I43" t="n">
         <v>12.3697513157449</v>
@@ -34295,31 +34295,31 @@
         <v>47.78882158863959</v>
       </c>
       <c r="L43" t="n">
-        <v>61.15323851804477</v>
+        <v>61.15323851804476</v>
       </c>
       <c r="M43" t="n">
         <v>64.47751570054088</v>
       </c>
       <c r="N43" t="n">
-        <v>62.94438449151572</v>
+        <v>62.94438449151571</v>
       </c>
       <c r="O43" t="n">
         <v>58.13932692176594</v>
       </c>
       <c r="P43" t="n">
-        <v>49.74823806066205</v>
+        <v>49.74823806066204</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.44310138129573</v>
+        <v>34.44310138129572</v>
       </c>
       <c r="R43" t="n">
-        <v>18.49479746302124</v>
+        <v>18.49479746302123</v>
       </c>
       <c r="S43" t="n">
-        <v>7.168323238295938</v>
+        <v>7.168323238295937</v>
       </c>
       <c r="T43" t="n">
-        <v>1.757491873760611</v>
+        <v>1.75749187376061</v>
       </c>
       <c r="U43" t="n">
         <v>0.02243606647353974</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.332216916706522</v>
+        <v>0.9169849613976024</v>
       </c>
       <c r="H44" t="n">
-        <v>13.64356649822067</v>
+        <v>9.3910722359132</v>
       </c>
       <c r="I44" t="n">
-        <v>51.36029268132823</v>
+        <v>35.3520627242811</v>
       </c>
       <c r="J44" t="n">
-        <v>113.0702455343203</v>
+        <v>77.82795236741984</v>
       </c>
       <c r="K44" t="n">
-        <v>169.4629876185074</v>
+        <v>116.6439257833804</v>
       </c>
       <c r="L44" t="n">
-        <v>210.2338210831646</v>
+        <v>144.7071042957523</v>
       </c>
       <c r="M44" t="n">
-        <v>233.9256336756442</v>
+        <v>161.0145356030069</v>
       </c>
       <c r="N44" t="n">
-        <v>237.7107949902366</v>
+        <v>163.6199191245778</v>
       </c>
       <c r="O44" t="n">
-        <v>224.4635630247362</v>
+        <v>154.5016499146804</v>
       </c>
       <c r="P44" t="n">
-        <v>191.5744578935439</v>
+        <v>131.8635836801771</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.8644395639915</v>
+        <v>99.02405975012542</v>
       </c>
       <c r="R44" t="n">
-        <v>83.68487089406614</v>
+        <v>57.6015565813922</v>
       </c>
       <c r="S44" t="n">
-        <v>30.3578929894499</v>
+        <v>20.89579480784789</v>
       </c>
       <c r="T44" t="n">
-        <v>5.831779552882803</v>
+        <v>4.014101668518007</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1065773533365217</v>
+        <v>0.07335879691180819</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7127988908585892</v>
+        <v>0.4906302083553308</v>
       </c>
       <c r="H45" t="n">
-        <v>6.884136656450059</v>
+        <v>4.738454907010696</v>
       </c>
       <c r="I45" t="n">
-        <v>24.54154075982423</v>
+        <v>16.89231199819889</v>
       </c>
       <c r="J45" t="n">
-        <v>67.34386363151259</v>
+        <v>46.35379525518501</v>
       </c>
       <c r="K45" t="n">
-        <v>115.1013893190381</v>
+        <v>79.22601921499218</v>
       </c>
       <c r="L45" t="n">
-        <v>154.7680223331336</v>
+        <v>106.5291599325906</v>
       </c>
       <c r="M45" t="n">
-        <v>180.6069821267574</v>
+        <v>116.432970672053</v>
       </c>
       <c r="N45" t="n">
-        <v>185.3871115308047</v>
+        <v>109.4179614769077</v>
       </c>
       <c r="O45" t="n">
-        <v>169.5929887386223</v>
+        <v>116.7334075116299</v>
       </c>
       <c r="P45" t="n">
-        <v>136.1133250447423</v>
+        <v>93.68885092708068</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591395</v>
+        <v>62.62851571918223</v>
       </c>
       <c r="R45" t="n">
-        <v>44.25605745172891</v>
+        <v>30.46211065560555</v>
       </c>
       <c r="S45" t="n">
-        <v>13.2399267666058</v>
+        <v>9.113240931512388</v>
       </c>
       <c r="T45" t="n">
-        <v>2.873079739908084</v>
+        <v>1.977584041572583</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04689466387227562</v>
+        <v>0.03227830318127178</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5975866456292168</v>
+        <v>0.4113278853482281</v>
       </c>
       <c r="H46" t="n">
-        <v>5.313088540230678</v>
+        <v>3.657078835186976</v>
       </c>
       <c r="I46" t="n">
-        <v>17.97106021583136</v>
+        <v>12.3697513157449</v>
       </c>
       <c r="J46" t="n">
-        <v>42.24937584598563</v>
+        <v>29.08088149411973</v>
       </c>
       <c r="K46" t="n">
-        <v>69.42870301037627</v>
+        <v>47.78882158863959</v>
       </c>
       <c r="L46" t="n">
-        <v>88.8448363874565</v>
+        <v>61.15323851804476</v>
       </c>
       <c r="M46" t="n">
-        <v>93.67442300531441</v>
+        <v>64.47751570054088</v>
       </c>
       <c r="N46" t="n">
-        <v>91.44705459887831</v>
+        <v>62.94438449151571</v>
       </c>
       <c r="O46" t="n">
-        <v>84.46615605675515</v>
+        <v>58.13932692176594</v>
       </c>
       <c r="P46" t="n">
-        <v>72.27538848591908</v>
+        <v>49.74823806066204</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.03973266264288</v>
+        <v>34.44310138129572</v>
       </c>
       <c r="R46" t="n">
-        <v>26.86966862983733</v>
+        <v>18.49479746302123</v>
       </c>
       <c r="S46" t="n">
-        <v>10.41430545155644</v>
+        <v>7.168323238295937</v>
       </c>
       <c r="T46" t="n">
-        <v>2.553324758597562</v>
+        <v>1.75749187376061</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03259563521613914</v>
+        <v>0.02243606647353974</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="L23" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="M23" t="n">
-        <v>11.28948400527966</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N23" t="n">
-        <v>14.50142778679378</v>
+        <v>14.50142778679376</v>
       </c>
       <c r="O23" t="n">
-        <v>4.937812490584065</v>
+        <v>8.572871396644658</v>
       </c>
       <c r="P23" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>16.39142352352203</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>16.46881307567239</v>
+        <v>16.46881307567237</v>
       </c>
       <c r="M24" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N24" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O24" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P24" t="n">
-        <v>6.605486107766055</v>
+        <v>6.605486107766041</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>24.04584862274111</v>
+        <v>23.07429918343841</v>
       </c>
       <c r="O25" t="n">
-        <v>23.07429918343843</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>20.44870014220419</v>
       </c>
       <c r="M26" t="n">
-        <v>12.63014801532686</v>
+        <v>11.28948400527966</v>
       </c>
       <c r="N26" t="n">
         <v>14.50142778679376</v>
       </c>
       <c r="O26" t="n">
-        <v>24.04584862274111</v>
+        <v>4.937812490584037</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>19.98857200405892</v>
@@ -36682,13 +36682,13 @@
         <v>16.46881307567237</v>
       </c>
       <c r="M27" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N27" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O27" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P27" t="n">
         <v>6.605486107766041</v>
@@ -36758,22 +36758,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="M28" t="n">
-        <v>24.04584862274111</v>
+        <v>23.07429918343841</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P28" t="n">
-        <v>23.07429918343843</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>10.90427930625692</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="M29" t="n">
-        <v>11.28948400527966</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N29" t="n">
-        <v>24.04584862274111</v>
+        <v>18.13648669285437</v>
       </c>
       <c r="O29" t="n">
         <v>4.937812490584037</v>
@@ -36852,10 +36852,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>19.98857200405892</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>16.46881307567237</v>
       </c>
       <c r="M30" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N30" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O30" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P30" t="n">
         <v>6.605486107766041</v>
@@ -36995,22 +36995,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>23.07429918343841</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O31" t="n">
-        <v>23.07429918343844</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="P31" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>23.07429918343844</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N32" t="n">
-        <v>24.04584862274111</v>
+        <v>22.19376331153654</v>
       </c>
       <c r="O32" t="n">
-        <v>24.04584862274111</v>
+        <v>4.937812490584037</v>
       </c>
       <c r="P32" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.98857200405892</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>16.46881307567237</v>
       </c>
       <c r="M33" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N33" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O33" t="n">
         <v>24.04584862274108</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37238,16 +37238,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>23.07429918343844</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.04584862274111</v>
+        <v>23.07429918343841</v>
       </c>
       <c r="P34" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="M35" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N35" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O35" t="n">
-        <v>24.04584862274111</v>
+        <v>23.07429918343841</v>
       </c>
       <c r="P35" t="n">
-        <v>23.07429918343843</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>16.46881307567237</v>
+        <v>16.46881307567236</v>
       </c>
       <c r="M36" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N36" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O36" t="n">
-        <v>24.04584862274108</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="P36" t="n">
-        <v>6.605486107766041</v>
+        <v>6.60548610776607</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>23.07429918343844</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O37" t="n">
-        <v>24.04584862274111</v>
+        <v>23.07429918343841</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="M38" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N38" t="n">
-        <v>18.1364866928544</v>
+        <v>18.13648669285437</v>
       </c>
       <c r="O38" t="n">
         <v>4.937812490584037</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>16.46881307567237</v>
+        <v>16.46881307567236</v>
       </c>
       <c r="M39" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="N39" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="O39" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="P39" t="n">
-        <v>6.605486107766041</v>
+        <v>6.605486107766026</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="L40" t="n">
-        <v>23.07429918343844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>23.07429918343841</v>
       </c>
       <c r="O40" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274108</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>11.78481517815878</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="M41" t="n">
-        <v>11.28948400527966</v>
+        <v>11.28948400527963</v>
       </c>
       <c r="N41" t="n">
-        <v>24.04584862274111</v>
+        <v>15.84209179684091</v>
       </c>
       <c r="O41" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="P41" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>19.98857200405892</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>16.46881307567237</v>
+        <v>16.46881307567236</v>
       </c>
       <c r="M42" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="N42" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="O42" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="P42" t="n">
-        <v>6.60548610776607</v>
+        <v>6.605486107766026</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="L43" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="M43" t="n">
-        <v>24.04584862274111</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>23.07429918343839</v>
       </c>
       <c r="P43" t="n">
-        <v>23.07429918343843</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.04584862274111</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>58.43110495486408</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="L44" t="n">
-        <v>56.98565135267293</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>84.20058207791698</v>
+        <v>23.07429918343839</v>
       </c>
       <c r="N44" t="n">
-        <v>88.59230365245256</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="O44" t="n">
-        <v>74.89972560063978</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="P44" t="n">
-        <v>41.27301065261867</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>25.50445398570471</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>64.70767547621536</v>
+        <v>16.46881307567236</v>
       </c>
       <c r="M45" t="n">
-        <v>88.21986007744549</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="N45" t="n">
-        <v>100.0149986766381</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="O45" t="n">
-        <v>76.90542984973341</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="P45" t="n">
-        <v>49.02996022542769</v>
+        <v>6.605486107766026</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,16 +38177,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>102.1271822725136</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="L46" t="n">
-        <v>98.0008314736242</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>102.1271822725136</v>
+        <v>23.07429918343839</v>
       </c>
       <c r="N46" t="n">
-        <v>102.1271822725136</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>24.04584862274106</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
